--- a/src/my_rag/evaluations/results/rag_evaluations_embedder_nvidia_NV-Embed-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_embedder_nvidia_NV-Embed-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
@@ -488,7 +488,7 @@
 6. On the paper settings page, confirm the authorship request.
 7. The Hugging Face admin team will then validate your request.
 8. Once confirmed by the admin team, the Paper page will show your authorship as verified.
-The context also mentions that the Hub attempts to automatically match papers to users based on their email. So in some cases, papers may already be linked to your account without needing to manually claim authorship. But if your paper is not automatically linked, you can follow the steps above to claim it.</t>
+The context also mentions that the Hub attempts to automatically match papers to users based on their email. So in some cases, authorship may already be linked to your account automatically. The claiming process is for cases where the automatic matching did not occur.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,15 +521,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Based on the context provided, you can force mixed precision training when initializing the Accelerator in 🤗 Accelerate by passing the fp16=True argument. Specifically:
+          <t>Based on the context provided, you can force mixed precision training when initializing the Accelerator in 🤗 Accelerate by passing the `fp16=True` argument. Specifically:
 ```python
 accelerator = Accelerator(fp16=True)
 ```
-This will enable mixed precision training using fp16 (16-bit floating point) precision when creating the Accelerator object.
-The context mentions that you can force mixed precision training either by:
-1. Passing fp16=True when initializing the Accelerator
-2. Using the launcher for the script to set this option
-So explicitly passing fp16=True when creating the Accelerator object is one way to force mixed precision training in 🤗 Accelerate.</t>
+This will enable mixed precision training using fp16 (16-bit floating point) precision.
+The context mentions that you can force mixed precision training in two ways:
+1. By passing `fp16=True` when initializing the Accelerator object.
+2. By using the launcher for your script (though details on this method are not provided in the given context).
+So to directly answer the question, passing `fp16=True` when creating the Accelerator object is how you can force mixed precision training during initialization.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -565,9 +565,9 @@
           <t>Based on the context provided, here are the steps to install the Hugging Face Unity API in a Unity project:
 1. Open your Unity project
 2. Go to Window -&gt; Package Manager
-3. Click the + button and select "Add Package from git URL"
+3. Click the "+" button and select "Add Package from git URL"
 4. Enter the following URL: https://github.com/huggingface/unity-api.git
-5. Once installed, the Unity API wizard should pop up automatically. If it doesn't, you can access it by going to Window -&gt; Hugging Face API Wizard
+5. Once installed, the Unity API wizard should pop up automatically. If it doesn't, go to Window -&gt; Hugging Face API Wizard
 6. In the API Wizard, enter your Hugging Face API key. You can create an API key in your Hugging Face account settings.
 7. Test the API key by clicking "Test API key" in the wizard
 8. Optionally, you can change the model endpoints to use different models
@@ -613,15 +613,14 @@
    ```
    gradio run.py
    ```
-3. This will run your app in reload mode, where Gradio will watch for changes to your file and automatically reload the app when you save changes.
+3. This will run your app in reload mode, which means Gradio will watch for changes to your file and automatically reload the app when you save changes.
 Key points to remember:
 - Your Blocks app should be named `demo` by default. If you use a different name, you need to specify it when running, e.g. `gradio run.py my_demo`.
 - The `gradio` command looks for a Gradio Blocks or Interface demo called `demo` in your code.
-- In reload mode, Gradio will watch the directory where your Python file is located and reload if the file changes.
-- You can focus on writing your code, and your Gradio demo will refresh automatically when you save changes.
-- This allows for faster development as you don't need to manually stop and restart your app each time you make changes.
-- The reload mode works for changes to both your app code and the Gradio source code itself.
-By using this reload mode, you can iterate on your Gradio Blocks app more quickly and efficiently in your Python IDE.</t>
+- In reload mode, Gradio watches the directory where your Python file is located and will automatically rerun the file if it detects changes.
+- This allows you to make changes to your code and see them reflected in the app immediately without having to manually stop and restart the server.
+- The reload mode is particularly useful when developing and iterating on your Gradio app in a Python IDE.
+By using this method, you can focus on writing and modifying your code, and your Gradio demo will refresh automatically when you save changes, making the development process faster and more convenient.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -688,20 +687,10 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Based on the context provided, the duorc dataset has 6 splits. Specifically, the example JSON response shows:
-```json
-{
-  "splits": [
-    { "dataset": "duorc", "config": "ParaphraseRC", "split": "train" },
-    { "dataset": "duorc", "config": "ParaphraseRC", "split": "validation" },
-    { "dataset": "duorc", "config": "ParaphraseRC", "split": "test" },
-    { "dataset": "duorc", "config": "SelfRC", "split": "train" },
-    { "dataset": "duorc", "config": "SelfRC", "split": "validation" },
-    { "dataset": "duorc", "config": "SelfRC", "split": "test" }
-  ]
-}
-```
-This shows 6 distinct splits across the two configurations (ParaphraseRC and SelfRC) of the duorc dataset.</t>
+          <t>Based on the context provided, the "duorc" dataset has 6 splits. Specifically, the JSON response shows:
+- 3 splits for the "ParaphraseRC" configuration: train, validation, and test
+- 3 splits for the "SelfRC" configuration: train, validation, and test
+So in total, there are 6 splits across the two configurations of the duorc dataset.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -711,12 +700,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['huggingface/datasets-server/blob/main/docs/source/splits.mdx', 'huggingface/blog/blob/main/spacy.md', 'huggingface/course/blob/main/subtitles/en/raw/tasks.md', 'huggingface/course/blob/main/subtitles/en/raw/chapter2/02_inside-pipeline-pt.md', 'huggingface/course/blob/main/chapters/en/chapter5/1.mdx']</t>
+          <t>['huggingface/datasets-server/blob/main/docs/source/splits.mdx', 'huggingface/blog/blob/main/spacy.md', 'huggingface/course/blob/main/subtitles/en/raw/tasks.md', 'huggingface/course/blob/main/subtitles/en/raw/chapter2/02_inside-pipeline-pt.md', 'huggingface/tokenizers/blob/main/docs/source-doc-builder/components.mdx']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['List splits and configurations\n\nDatasets typically have splits and may also have configurations. A _split_ is a subset of the dataset, like `train` and `test`, that are used during different stages of training and evaluating a model. A _configuration_ is a sub-dataset contained within a larger dataset. Configurations are especially common in multilingual speech datasets where there may be a different configuration for each language. If you\'re interested in learning more about splits and configurations, check out the [Load a dataset from the Hub tutorial](https://huggingface.co/docs/datasets/main/en/load_hub)!\n\nThis guide shows you how to use Datasets Server\'s `/splits` endpoint to retrieve a dataset\'s splits and configurations programmatically. Feel free to also try it out with [Postman](https://www.postman.com/huggingface/workspace/hugging-face-apis/request/23242779-f0cde3b9-c2ee-4062-aaca-65c4cfdd96f8), [RapidAPI](https://rapidapi.com/hugging-face-hugging-face-default/api/hugging-face-datasets-api), or [ReDoc](https://redocly.github.io/redoc/?url=https://datasets-server.huggingface.co/openapi.json#operation/listSplits)\n\nThe `/splits` endpoint accepts the dataset name as its query parameter:\n\n&lt;inferencesnippet&gt;\n&lt;python&gt;\n```python\nimport requests\nheaders = {"Authorization": f"Bearer {API_TOKEN}"}\nAPI_URL = "https://datasets-server.huggingface.co/splits?dataset=duorc"\ndef query():\n    response = requests.get(API_URL, headers=headers)\n    return response.json()\ndata = query()\n```\n&lt;/python&gt;\n&lt;js&gt;\n```js\nimport fetch from "node-fetch";\nasync function query(data) {\n    const response = await fetch(\n        "https://datasets-server.huggingface.co/splits?dataset=duorc",\n        {\n            headers: { Authorization: `Bearer ${API_TOKEN}` },\n            method: "GET"\n        }\n    );\n    const result = await response.json();\n    return result;\n}\nquery().then((response) =&gt; {\n    console.log(JSON.stringify(response));\n});\n```\n&lt;/js&gt;\n&lt;curl&gt;\n```curl\ncurl https://datasets-server.huggingface.co/splits?dataset=duorc \\\n        -X GET \\\n        -H "Authorization: Bearer ${API_TOKEN}"\n```\n&lt;/curl&gt;\n&lt;/inferencesnippet&gt;\n\nThe endpoint response is a JSON containing a list of the dataset\'s splits and configurations. For example, the [duorc](https://huggingface.co/datasets/duorc) dataset has six splits and two configurations:\n\n```json\n{\n  "splits": [\n    { "dataset": "duorc", "config": "ParaphraseRC", "split": "train" },\n    { "dataset": "duorc", "config": "ParaphraseRC", "split": "validation" },\n    { "dataset": "duorc", "config": "ParaphraseRC", "split": "test" },\n    { "dataset": "duorc", "config": "SelfRC", "split": "train" },\n    { "dataset": "duorc", "config": "SelfRC", "split": "validation" },\n    { "dataset": "duorc", "config": "SelfRC", "split": "test" }\n  ],\n  "pending": [],\n  "failed": []\n}\n```', '&lt;div class="SVELTE_HYDRATER " data-props="{&amp;quot;apiUrl&amp;quot;:&amp;quot;https://api-inference.huggingface.co&amp;quot;,&amp;quot;model&amp;quot;:{&amp;quot;author&amp;quot;:&amp;quot;spacy&amp;quot;,&amp;quot;autoArchitecture&amp;quot;:&amp;quot;AutoModel&amp;quot;,&amp;quot;branch&amp;quot;:&amp;quot;main&amp;quot;,&amp;quot;cardData&amp;quot;:{&amp;quot;tags&amp;quot;:[&amp;quot;spacy&amp;quot;,&amp;quot;token-classification&amp;quot;],&amp;quot;language&amp;quot;:[&amp;quot;en&amp;quot;],&amp;quot;license&amp;quot;:&amp;quot;MIT&amp;quot;,&amp;quot;model-index&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;en_core_web_sm&amp;quot;,&amp;quot;results&amp;quot;:[{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;NER&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Precision&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;precision&amp;quot;,&amp;quot;value&amp;quot;:0.8424355924},{&amp;quot;name&amp;quot;:&amp;quot;Recall&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;recall&amp;quot;,&amp;quot;value&amp;quot;:0.8335336538},{&amp;quot;name&amp;quot;:&amp;quot;F Score&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;f_score&amp;quot;,&amp;quot;value&amp;quot;:0.8379609817}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;POS&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Accuracy&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;accuracy&amp;quot;,&amp;quot;value&amp;quot;:0.9720712187}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;SENTER&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Precision&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;precision&amp;quot;,&amp;quot;value&amp;quot;:0.9074955788},{&amp;quot;name&amp;quot;:&amp;quot;Recall&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;recall&amp;quot;,&amp;quot;value&amp;quot;:0.8801372122},{&amp;quot;name&amp;quot;:&amp;quot;F Score&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;f_score&amp;quot;,&amp;quot;value&amp;quot;:0.893607046}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;UNLABELED_DEPENDENCIES&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Accuracy&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;accuracy&amp;quot;,&amp;quot;value&amp;quot;:0.9185392711}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;LABELED_DEPENDENCIES&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Accuracy&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;accuracy&amp;quot;,&amp;quot;value&amp;quot;:0.9185392711}]}}]}]},&amp;quot;cardSource&amp;quot;:true,&amp;quot;id&amp;quot;:&amp;quot;spacy/en_core_web_sm&amp;quot;,&amp;quot;pipeline_tag&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;library_name&amp;quot;:&amp;quot;spacy&amp;quot;,&amp;quot;modelId&amp;quot;:&amp;quot;spacy/en_core_web_sm&amp;quot;,&amp;quot;private&amp;quot;:false,&amp;quot;siblings&amp;quot;:[{&amp;quot;rfilename&amp;quot;:&amp;quot;.gitattributes&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;LICENSE&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;LICENSES_SOURCES&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;README.md&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;accuracy.json&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;config.cfg&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;en_core_web_sm-any-py3-none-any.whl&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;meta.json&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;tokenizer&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;attribute_ruler/patterns&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;lemmatizer/lookups/lookups.bin&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;ner/cfg&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;ner/model&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;ner/moves&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;vocab/lookups.bin&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;vocab/strings.json&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;vocab/vectors&amp;quot;}],&amp;quot;tags&amp;quot;:[&amp;quot;en&amp;quot;,&amp;quot;spacy&amp;quot;,&amp;quot;token-classification&amp;quot;,&amp;quot;license:mit&amp;quot;,&amp;quot;model-index&amp;quot;],&amp;quot;tag_objs&amp;quot;:[{&amp;quot;id&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;label&amp;quot;:&amp;quot;Token', "ote: the following transcripts are associated with Merve Noyan's videos in the Hugging Face Tasks playlist: https://www.youtube.com/playlist?list=PLo2EIpI_JMQtyEr-sLJSy5_SnLCb4vtQf\n\nToken Classification video\n\nWelcome to the Hugging Face tasks series! In this video we’ll take a look at the token classification task.\nToken classification is the task of assigning a label to each token in a sentence. There are various token classification tasks and the most common are Named Entity Recognition and Part-of-Speech Tagging.\nLet’s take a quick look at the Named Entity Recognition task. The goal of this task is to find the entities in a piece of text, such as person, location, or organization. This task is formulated as labelling each token with one class for each entity, and another class for tokens that have no entity.\nAnother token classification task is part-of-speech tagging. The goal of this task is to label the words for a particular part of a speech, such as noun, pronoun, adjective, verb and so on. This task is formulated as labelling each token with parts of speech.\nToken classification models are evaluated on Accuracy, Recall, Precision and F1-Score. The metrics are calculated for each of the classes. We calculate true positive, true negative and false positives to calculate precision and recall, and take their harmonic mean to get F1-Score. Then we calculate it for every class and take the overall average to evaluate our model.\nAn example dataset used for this task is ConLL2003. Here, each token belongs to a certain named entity class, denoted as the indices of the list containing the labels.\nYou can extract important information from invoices using named entity recognition models, such as date, organization name or address.\nFor more information about the Token classification task, check out the Hugging Face course.\n\n\nQuestion Answering video\n\nWelcome to the Hugging Face tasks series. In this video, we will take a look at the Question Answering task.\nQuestion answering is the task of extracting an answer in a given document.\nQuestion answering models take a context, which is the document you want to search in, and a question and return an answer. Note that the answer is not generated, but extracted from the context. This type of question answering is called extractive.\nThe task is evaluated on two metrics, exact match and F1-Score.\nAs the name implies, exact match looks for an exact match between the predicted answer and the correct answer.\nA common metric used is the F1-Score, which is calculated over tokens that are predicted correctly and incorrectly. It is calculated over the average of two metrics called precision and recall which are metrics that are used widely in classification problems.\nAn example dataset used for this task is called SQuAD. This dataset contains contexts, questions and the answers that are obtained from English Wikipedia articles.\nYou can use question answering models to automatically answer the questions asked by your customers. You simply need a document containing information about your business and query through that document with the questions asked by your customers.\nFor more information about the Question Answering task, check out the Hugging Face course.\n\n\nCausal Language Modeling video", "hat happens inside the pipeline function? In this video, we will look at what actually happens when we use the pipeline function of the Transformers library. More specifically, we will look at the sentiment analysis pipeline, and how it went from the two following sentences to the positive labels with their respective scores. As we have seen in the pipeline presentation, there are three stages in the pipeline. First, we convert the raw texts to numbers the model can make sense of, using a tokenizer. Then, those numbers go through the model, which outputs logits. Finally, the post-processing steps transforms those logits into labels and scores. Let's look in detail at those three steps, and how to replicate them using the Transformers library, beginning with the first stage, tokenization. The tokenization process has several steps. First, the text is split into small chunks called tokens. They can be words, parts of words or punctuation symbols. Then the tokenizer will had some special tokens (if the model expect them). Here the model uses expects a CLS token at the beginning and a SEP token at the end of the sentence to classify. Lastly, the tokenizer matches each token to its unique ID in the vocabulary of the pretrained model. To load such a tokenizer, the Transformers library provides the AutoTokenizer API. The most important method of this class is from_pretrained, which will download and cache the configuration and the vocabulary associated to a given checkpoint. Here, the checkpoint used by default for the sentiment analysis pipeline is distilbert base uncased finetuned sst2 english. We instantiate a tokenizer associated with that checkpoint, then feed it the two sentences. Since those two sentences are not of the same size, we will need to pad the shortest one to be able to build an array. This is done by the tokenizer with the option padding=True. With truncation=True, we ensure that any sentence longer than the maximum the model can handle is truncated. Lastly, the return_tensors option tells the tokenizer to return a PyTorch tensor. Looking at the result, we see we have a dictionary with two keys. Input IDs contains the IDs of both sentences, with 0s where the padding is applied. The second key, attention mask, indicates where padding has been applied, so the model does not pay attention to it. This is all what is inside the tokenization step. Now let's have a look at the second step, the model. As for the tokenizer, there is an AutoModel API, with a from_pretrained method. It will download and cache the configuration of the model as well as the pretrained weights. However, the AutoModel API will only instantiate the body of the model, that is, the part of the model that is left once the pretraining head is removed. It will output a high-dimensional tensor that is a representation of the sentences passed, but which is not directly useful for our classification problem. Here the tensor has two sentences, each of sixteen tokens and the last dimension is the hidden size of our model 768. To get an output linked to our classification problem, we need to use the AutoModelForSequenceClassification class. It works exactly as the AutoModel class, except that it will build a model with a classification head. There is one auto class for each common NLP task in the Transformers library. Here, after giving our model the two sentences, we get a tensor of size two by two: one result for each sentence and for each possible label. Those outputs are not probabilities yet (we can see they don't sum to 1). This is because each model of the Transformers library returns logits. To make sense of those logits, we need to dig into the third and last step of the pipeline: post-processing. To convert logits into probabilities, we need to apply a SoftMax layer to them. As we can see, this transforms them into positive numbers that sum up to 1. The last step is to know which of those corresponds to the positive or the negative label", 'Introduction[[introduction]]\n\n&lt;CourseFloatingBanner\n    chapter={5}\n    classNames="absolute z-10 right-0 top-0"\n/&gt;\n\nIn [Chapter 3](/course/chapter3) you got your first taste of the 🤗 Datasets library and saw that there were three main steps when it came to fine-tuning a model:\n\n1. Load a dataset from the Hugging Face Hub.\n2. Preprocess the data with `Dataset.map()`.\n3. Load and compute metrics.\n\nBut this is just scratching the surface of what 🤗 Datasets can do! In this chapter, we will take a deep dive into the library. Along the way, we\'ll find answers to the following questions:\n\n* What do you do when your dataset is not on the Hub?\n* How can you slice and dice a dataset? (And what if you _really_ need to use Pandas?)\n* What do you do when your dataset is huge and will melt your laptop\'s RAM?\n* What the heck are "memory mapping" and Apache Arrow?\n* How can you create your own dataset and push it to the Hub?\n\nThe techniques you learn here will prepare you for the advanced tokenization and fine-tuning tasks in [Chapter 6](/course/chapter6) and [Chapter 7](/course/chapter7) -- so grab a coffee and let\'s get started!']</t>
+          <t>['List splits and configurations\n\nDatasets typically have splits and may also have configurations. A _split_ is a subset of the dataset, like `train` and `test`, that are used during different stages of training and evaluating a model. A _configuration_ is a sub-dataset contained within a larger dataset. Configurations are especially common in multilingual speech datasets where there may be a different configuration for each language. If you\'re interested in learning more about splits and configurations, check out the [Load a dataset from the Hub tutorial](https://huggingface.co/docs/datasets/main/en/load_hub)!\n\nThis guide shows you how to use Datasets Server\'s `/splits` endpoint to retrieve a dataset\'s splits and configurations programmatically. Feel free to also try it out with [Postman](https://www.postman.com/huggingface/workspace/hugging-face-apis/request/23242779-f0cde3b9-c2ee-4062-aaca-65c4cfdd96f8), [RapidAPI](https://rapidapi.com/hugging-face-hugging-face-default/api/hugging-face-datasets-api), or [ReDoc](https://redocly.github.io/redoc/?url=https://datasets-server.huggingface.co/openapi.json#operation/listSplits)\n\nThe `/splits` endpoint accepts the dataset name as its query parameter:\n\n&lt;inferencesnippet&gt;\n&lt;python&gt;\n```python\nimport requests\nheaders = {"Authorization": f"Bearer {API_TOKEN}"}\nAPI_URL = "https://datasets-server.huggingface.co/splits?dataset=duorc"\ndef query():\n    response = requests.get(API_URL, headers=headers)\n    return response.json()\ndata = query()\n```\n&lt;/python&gt;\n&lt;js&gt;\n```js\nimport fetch from "node-fetch";\nasync function query(data) {\n    const response = await fetch(\n        "https://datasets-server.huggingface.co/splits?dataset=duorc",\n        {\n            headers: { Authorization: `Bearer ${API_TOKEN}` },\n            method: "GET"\n        }\n    );\n    const result = await response.json();\n    return result;\n}\nquery().then((response) =&gt; {\n    console.log(JSON.stringify(response));\n});\n```\n&lt;/js&gt;\n&lt;curl&gt;\n```curl\ncurl https://datasets-server.huggingface.co/splits?dataset=duorc \\\n        -X GET \\\n        -H "Authorization: Bearer ${API_TOKEN}"\n```\n&lt;/curl&gt;\n&lt;/inferencesnippet&gt;\n\nThe endpoint response is a JSON containing a list of the dataset\'s splits and configurations. For example, the [duorc](https://huggingface.co/datasets/duorc) dataset has six splits and two configurations:\n\n```json\n{\n  "splits": [\n    { "dataset": "duorc", "config": "ParaphraseRC", "split": "train" },\n    { "dataset": "duorc", "config": "ParaphraseRC", "split": "validation" },\n    { "dataset": "duorc", "config": "ParaphraseRC", "split": "test" },\n    { "dataset": "duorc", "config": "SelfRC", "split": "train" },\n    { "dataset": "duorc", "config": "SelfRC", "split": "validation" },\n    { "dataset": "duorc", "config": "SelfRC", "split": "test" }\n  ],\n  "pending": [],\n  "failed": []\n}\n```', '&lt;div class="SVELTE_HYDRATER " data-props="{&amp;quot;apiUrl&amp;quot;:&amp;quot;https://api-inference.huggingface.co&amp;quot;,&amp;quot;model&amp;quot;:{&amp;quot;author&amp;quot;:&amp;quot;spacy&amp;quot;,&amp;quot;autoArchitecture&amp;quot;:&amp;quot;AutoModel&amp;quot;,&amp;quot;branch&amp;quot;:&amp;quot;main&amp;quot;,&amp;quot;cardData&amp;quot;:{&amp;quot;tags&amp;quot;:[&amp;quot;spacy&amp;quot;,&amp;quot;token-classification&amp;quot;],&amp;quot;language&amp;quot;:[&amp;quot;en&amp;quot;],&amp;quot;license&amp;quot;:&amp;quot;MIT&amp;quot;,&amp;quot;model-index&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;en_core_web_sm&amp;quot;,&amp;quot;results&amp;quot;:[{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;NER&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Precision&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;precision&amp;quot;,&amp;quot;value&amp;quot;:0.8424355924},{&amp;quot;name&amp;quot;:&amp;quot;Recall&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;recall&amp;quot;,&amp;quot;value&amp;quot;:0.8335336538},{&amp;quot;name&amp;quot;:&amp;quot;F Score&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;f_score&amp;quot;,&amp;quot;value&amp;quot;:0.8379609817}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;POS&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Accuracy&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;accuracy&amp;quot;,&amp;quot;value&amp;quot;:0.9720712187}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;SENTER&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Precision&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;precision&amp;quot;,&amp;quot;value&amp;quot;:0.9074955788},{&amp;quot;name&amp;quot;:&amp;quot;Recall&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;recall&amp;quot;,&amp;quot;value&amp;quot;:0.8801372122},{&amp;quot;name&amp;quot;:&amp;quot;F Score&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;f_score&amp;quot;,&amp;quot;value&amp;quot;:0.893607046}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;UNLABELED_DEPENDENCIES&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Accuracy&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;accuracy&amp;quot;,&amp;quot;value&amp;quot;:0.9185392711}]}},{&amp;quot;tasks&amp;quot;:{&amp;quot;name&amp;quot;:&amp;quot;LABELED_DEPENDENCIES&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;metrics&amp;quot;:[{&amp;quot;name&amp;quot;:&amp;quot;Accuracy&amp;quot;,&amp;quot;type&amp;quot;:&amp;quot;accuracy&amp;quot;,&amp;quot;value&amp;quot;:0.9185392711}]}}]}]},&amp;quot;cardSource&amp;quot;:true,&amp;quot;id&amp;quot;:&amp;quot;spacy/en_core_web_sm&amp;quot;,&amp;quot;pipeline_tag&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;library_name&amp;quot;:&amp;quot;spacy&amp;quot;,&amp;quot;modelId&amp;quot;:&amp;quot;spacy/en_core_web_sm&amp;quot;,&amp;quot;private&amp;quot;:false,&amp;quot;siblings&amp;quot;:[{&amp;quot;rfilename&amp;quot;:&amp;quot;.gitattributes&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;LICENSE&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;LICENSES_SOURCES&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;README.md&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;accuracy.json&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;config.cfg&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;en_core_web_sm-any-py3-none-any.whl&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;meta.json&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;tokenizer&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;attribute_ruler/patterns&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;lemmatizer/lookups/lookups.bin&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;ner/cfg&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;ner/model&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;ner/moves&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;vocab/lookups.bin&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;vocab/strings.json&amp;quot;},{&amp;quot;rfilename&amp;quot;:&amp;quot;vocab/vectors&amp;quot;}],&amp;quot;tags&amp;quot;:[&amp;quot;en&amp;quot;,&amp;quot;spacy&amp;quot;,&amp;quot;token-classification&amp;quot;,&amp;quot;license:mit&amp;quot;,&amp;quot;model-index&amp;quot;],&amp;quot;tag_objs&amp;quot;:[{&amp;quot;id&amp;quot;:&amp;quot;token-classification&amp;quot;,&amp;quot;label&amp;quot;:&amp;quot;Token', "ote: the following transcripts are associated with Merve Noyan's videos in the Hugging Face Tasks playlist: https://www.youtube.com/playlist?list=PLo2EIpI_JMQtyEr-sLJSy5_SnLCb4vtQf\n\nToken Classification video\n\nWelcome to the Hugging Face tasks series! In this video we’ll take a look at the token classification task.\nToken classification is the task of assigning a label to each token in a sentence. There are various token classification tasks and the most common are Named Entity Recognition and Part-of-Speech Tagging.\nLet’s take a quick look at the Named Entity Recognition task. The goal of this task is to find the entities in a piece of text, such as person, location, or organization. This task is formulated as labelling each token with one class for each entity, and another class for tokens that have no entity.\nAnother token classification task is part-of-speech tagging. The goal of this task is to label the words for a particular part of a speech, such as noun, pronoun, adjective, verb and so on. This task is formulated as labelling each token with parts of speech.\nToken classification models are evaluated on Accuracy, Recall, Precision and F1-Score. The metrics are calculated for each of the classes. We calculate true positive, true negative and false positives to calculate precision and recall, and take their harmonic mean to get F1-Score. Then we calculate it for every class and take the overall average to evaluate our model.\nAn example dataset used for this task is ConLL2003. Here, each token belongs to a certain named entity class, denoted as the indices of the list containing the labels.\nYou can extract important information from invoices using named entity recognition models, such as date, organization name or address.\nFor more information about the Token classification task, check out the Hugging Face course.\n\n\nQuestion Answering video\n\nWelcome to the Hugging Face tasks series. In this video, we will take a look at the Question Answering task.\nQuestion answering is the task of extracting an answer in a given document.\nQuestion answering models take a context, which is the document you want to search in, and a question and return an answer. Note that the answer is not generated, but extracted from the context. This type of question answering is called extractive.\nThe task is evaluated on two metrics, exact match and F1-Score.\nAs the name implies, exact match looks for an exact match between the predicted answer and the correct answer.\nA common metric used is the F1-Score, which is calculated over tokens that are predicted correctly and incorrectly. It is calculated over the average of two metrics called precision and recall which are metrics that are used widely in classification problems.\nAn example dataset used for this task is called SQuAD. This dataset contains contexts, questions and the answers that are obtained from English Wikipedia articles.\nYou can use question answering models to automatically answer the questions asked by your customers. You simply need a document containing information about your business and query through that document with the questions asked by your customers.\nFor more information about the Question Answering task, check out the Hugging Face course.\n\n\nCausal Language Modeling video", "hat happens inside the pipeline function? In this video, we will look at what actually happens when we use the pipeline function of the Transformers library. More specifically, we will look at the sentiment analysis pipeline, and how it went from the two following sentences to the positive labels with their respective scores. As we have seen in the pipeline presentation, there are three stages in the pipeline. First, we convert the raw texts to numbers the model can make sense of, using a tokenizer. Then, those numbers go through the model, which outputs logits. Finally, the post-processing steps transforms those logits into labels and scores. Let's look in detail at those three steps, and how to replicate them using the Transformers library, beginning with the first stage, tokenization. The tokenization process has several steps. First, the text is split into small chunks called tokens. They can be words, parts of words or punctuation symbols. Then the tokenizer will had some special tokens (if the model expect them). Here the model uses expects a CLS token at the beginning and a SEP token at the end of the sentence to classify. Lastly, the tokenizer matches each token to its unique ID in the vocabulary of the pretrained model. To load such a tokenizer, the Transformers library provides the AutoTokenizer API. The most important method of this class is from_pretrained, which will download and cache the configuration and the vocabulary associated to a given checkpoint. Here, the checkpoint used by default for the sentiment analysis pipeline is distilbert base uncased finetuned sst2 english. We instantiate a tokenizer associated with that checkpoint, then feed it the two sentences. Since those two sentences are not of the same size, we will need to pad the shortest one to be able to build an array. This is done by the tokenizer with the option padding=True. With truncation=True, we ensure that any sentence longer than the maximum the model can handle is truncated. Lastly, the return_tensors option tells the tokenizer to return a PyTorch tensor. Looking at the result, we see we have a dictionary with two keys. Input IDs contains the IDs of both sentences, with 0s where the padding is applied. The second key, attention mask, indicates where padding has been applied, so the model does not pay attention to it. This is all what is inside the tokenization step. Now let's have a look at the second step, the model. As for the tokenizer, there is an AutoModel API, with a from_pretrained method. It will download and cache the configuration of the model as well as the pretrained weights. However, the AutoModel API will only instantiate the body of the model, that is, the part of the model that is left once the pretraining head is removed. It will output a high-dimensional tensor that is a representation of the sentences passed, but which is not directly useful for our classification problem. Here the tensor has two sentences, each of sixteen tokens and the last dimension is the hidden size of our model 768. To get an output linked to our classification problem, we need to use the AutoModelForSequenceClassification class. It works exactly as the AutoModel class, except that it will build a model with a classification head. There is one auto class for each common NLP task in the Transformers library. Here, after giving our model the two sentences, we get a tensor of size two by two: one result for each sentence and for each possible label. Those outputs are not probabilities yet (we can see they don't sum to 1). This is because each model of the Transformers library returns logits. To make sense of those logits, we need to dig into the third and last step of the pipeline: post-processing. To convert logits into probabilities, we need to apply a SoftMax layer to them. As we can see, this transforms them into positive numbers that sum up to 1. The last step is to know which of those corresponds to the positive or the negative label", '| CharDelimiterSplit | Splits on a given character | Example with `x`: &lt;br&gt; Input: `"Helloxthere"` &lt;br&gt; Ouput: `"Hello", "there"`  |\n| Digits | Splits the numbers from any other characters. | Input: `"Hello123there"` &lt;br&gt;  Output: ``"Hello", "123", "there"``  |\n| Split | Versatile pre-tokenizer that splits on provided pattern and according to provided behavior. The pattern can be inverted if necessary. &lt;ul&gt; &lt;li&gt;pattern should be either a custom string or regexp.&lt;/li&gt; &lt;li&gt;behavior should be one of: &lt;ul&gt;&lt;li&gt;Removed&lt;/li&gt;&lt;li&gt;Isolated&lt;/li&gt;&lt;li&gt;MergedWithPrevious&lt;/li&gt;&lt;li&gt;MergedWithNext&lt;/li&gt;&lt;li&gt;Contiguous&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt; &lt;li&gt;invert should be a boolean flag.&lt;/li&gt; &lt;/ul&gt; | Example with pattern = ` `, behavior = `"isolated"`, invert = `False`: &lt;br&gt; Input: `"Hello, how are you?"` &lt;br&gt; Output: `"Hello,", " ", "how", " ", "are", " ", "you?"` |\n| Sequence | Lets you compose multiple `PreTokenizer` that will be run in the given order | `Sequence::new(vec![Punctuation, WhitespaceSplit])` |\n&lt;/rust&gt;\n&lt;node&gt;\n| Name | Description | Example |\n| :--- | :--- | :--- |\n| ByteLevel | Splits on whitespaces while remapping all the bytes to a set of visible characters. This technique as been introduced by OpenAI with GPT-2 and has some more or less nice properties: &lt;ul&gt; &lt;li&gt;Since it maps on bytes, a tokenizer using this only requires **256** characters as initial alphabet (the number of values a byte can have), as opposed to the 130,000+ Unicode characters.&lt;/li&gt; &lt;li&gt;A consequence of the previous point is that it is absolutely unnecessary to have an unknown token using this since we can represent anything with 256 tokens (Youhou!! 🎉🎉)&lt;/li&gt; &lt;li&gt;For non ascii characters, it gets completely unreadable, but it works nonetheless!&lt;/li&gt; &lt;/ul&gt; | Input: `"Hello my friend, how are you?"` &lt;br&gt; Ouput: `"Hello", "Ġmy", Ġfriend", ",", "Ġhow", "Ġare", "Ġyou", "?"`  |\n| Whitespace | Splits on word boundaries (using the following regular expression: `\\w+&amp;#124;[^\\w\\s]+` | Input: `"Hello there!"` &lt;br&gt; Output: `"Hello", "there", "!"`  |\n| WhitespaceSplit | Splits on any whitespace character | Input: `"Hello there!"` &lt;br&gt; Output: `"Hello", "there!"`  |\n| Punctuation | Will isolate all punctuation characters | Input: `"Hello?"` &lt;br&gt; Ouput: `"Hello", "?"`  |\n| Metaspace | Splits on whitespaces and replaces them with a special char “▁” (U+2581) | Input: `"Hello there"` &lt;br&gt; Ouput: `"Hello", "▁there"`  |\n| CharDelimiterSplit | Splits on a given character | Example with `x`: &lt;br&gt; Input: `"Helloxthere"` &lt;br&gt; Ouput: `"Hello", "there"`  |\n| Digits | Splits the numbers from any other characters. | Input: `"Hello123there"` &lt;br&gt;  Output: ``"Hello", "123", "there"``  |\n| Split | Versatile pre-tokenizer that splits on provided pattern and according to provided behavior. The pattern can be inverted if necessary. &lt;ul&gt; &lt;li&gt;pattern should be either a custom string or regexp.&lt;/li&gt; &lt;li&gt;behavior should be one of: &lt;ul&gt;&lt;li&gt;removed&lt;/li&gt;&lt;li&gt;isolated&lt;/li&gt;&lt;li&gt;mergedWithPrevious&lt;/li&gt;&lt;li&gt;mergedWithNext&lt;/li&gt;&lt;li&gt;contiguous&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt; &lt;li&gt;invert should be a boolean flag.&lt;/li&gt; &lt;/ul&gt; | Example with pattern = ` `, behavior = `"isolated"`, invert = `False`: &lt;br&gt; Input: `"Hello, how are you?"` &lt;br&gt; Output: `"Hello,", " ", "how", " ", "are", " ", "you?"` |\n| Sequence | Lets you compose multiple `PreTokenizer` that will be run in the given order | |\n&lt;/node&gt;\n&lt;/tokenizerslangcontent&gt;']</t>
         </is>
       </c>
     </row>
@@ -734,17 +723,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Based on the context provided, the Python class that allows you to retrieve Discussions and Pull Requests from a given repository on the Hugging Face Hub is `HfApi`.
-Specifically, the `HfApi` class provides methods like:
-- `get_repo_discussions()` to retrieve Discussions and Pull Requests from a repo
-- `get_discussion_details()` to get more detailed information about a specific Discussion or Pull Request
-For example:
+          <t>The `HfApi` class allows you to retrieve Discussions and Pull Requests from a given repository on the Hugging Face Hub.
+Specifically, the context mentions:
+"The `HfApi` class allows you to retrieve Discussions and Pull Requests on a given repo:"
+It then shows an example using the `get_repo_discussions` function:
 ```python
 from huggingface_hub import get_repo_discussions
 for discussion in get_repo_discussions(repo_id="bigscience/bloom"):
     print(f"{discussion.num} - {discussion.title}, pr: {discussion.is_pull_request}")
 ```
-This allows you to iterate through and retrieve information about the Discussions and Pull Requests for a given repository on the Hub.</t>
+So the `HfApi` class, and specifically its `get_repo_discussions` method, is used to retrieve Discussions and Pull Requests from a Hugging Face Hub repository.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -778,8 +766,8 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>Based on the context provided, the TensorFlow API function used to load a saved tensor file is:
-safetensors.tensorflow.load_file()
-This function is part of the safetensors library's TensorFlow API for loading saved tensor files.</t>
+safetensors.tensorflow.load_file
+This function is part of the safetensors library and allows loading tensor files saved in the safetensors format using TensorFlow.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -813,8 +801,8 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>According to the context provided, SqueezeBERT uses grouped convolutions instead of fully-connected layers for the Q, K, V and FFN layers. Specifically, the overview states:
-"The key difference between the BERT architecture and the SqueezeBERT architecture is that SqueezeBERT uses [grouped convolutions](https://blog.yani.io/filter-group-tutorial) instead of fully-connected layers for the Q, K, V and FFN layers."
-This use of grouped convolutions instead of fully-connected layers is the main architectural change that distinguishes SqueezeBERT from standard BERT models.</t>
+"The key difference between the BERT architecture and the SqueezeBERT architecture is that SqueezeBERT uses grouped convolutions instead of fully-connected layers for the Q, K, V and FFN layers."
+This use of grouped convolutions instead of fully-connected layers is the main architectural innovation of SqueezeBERT compared to standard BERT models.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -847,10 +835,9 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Based on the context provided, the `tokenizers-linux-x64-musl` binary is designed for the x86_64-unknown-linux-musl architecture.
-Specifically, the context states:
+          <t>Based on the context provided, the `tokenizers-linux-x64-musl` binary is designed for the x86_64-unknown-linux-musl architecture. Specifically, the context states:
 "This is the **x86_64-unknown-linux-musl** binary for `tokenizers`"
-So this binary version of the tokenizers library is compiled for 64-bit x86 Linux systems using the musl C library.</t>
+This indicates that the binary is compiled for 64-bit x86 (x86_64) Linux systems using the musl C library.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -860,12 +847,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['huggingface/tokenizers/blob/main/bindings/node/npm/linux-x64-musl/README.md', 'huggingface/tokenizers/blob/main/docs/source-doc-builder/components.mdx', 'huggingface/transformers/blob/main/docs/source/en/model_doc/byt5.md', 'huggingface/tokenizers/blob/main/docs/source-doc-builder/components.mdx', 'huggingface/transformers/blob/main/docs/source/en/model_doc/fnet.md']</t>
+          <t>['huggingface/tokenizers/blob/main/bindings/node/npm/linux-x64-musl/README.md', 'huggingface/tokenizers/blob/main/docs/source-doc-builder/components.mdx', 'huggingface/transformers/blob/main/docs/source/en/model_doc/byt5.md', 'huggingface/tokenizers/blob/main/docs/source-doc-builder/components.mdx', 'huggingface/tokenizers/blob/main/docs/source-doc-builder/components.mdx']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['`tokenizers-linux-x64-musl`\n\nThis is the **x86_64-unknown-linux-musl** binary for `tokenizers`', 'Components\n\nWhen building a Tokenizer, you can attach various types of components to\nthis Tokenizer in order to customize its behavior. This page lists most\nprovided components.\n\n## Normalizers\n\nA `Normalizer` is in charge of pre-processing the input string in order\nto normalize it as relevant for a given use case. Some common examples\nof normalization are the Unicode normalization algorithms (NFD, NFKD,\nNFC &amp; NFKC), lowercasing etc... The specificity of `tokenizers` is that\nwe keep track of the alignment while normalizing. This is essential to\nallow mapping from the generated tokens back to the input text.\n\nThe `Normalizer` is optional.', '!--Copyright 2021 The HuggingFace Team. All rights reserved.\n\nLicensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with\nthe License. You may obtain a copy of the License at\n\nhttp://www.apache.org/licenses/LICENSE-2.0\n\nUnless required by applicable law or agreed to in writing, software distributed under the License is distributed on\nan "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the\nspecific language governing permissions and limitations under the License.\n\n⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n\n--&gt;\n\n# ByT5\n\n## Overview\n\nThe ByT5 model was presented in [ByT5: Towards a token-free future with pre-trained byte-to-byte models](https://arxiv.org/abs/2105.13626) by Linting Xue, Aditya Barua, Noah Constant, Rami Al-Rfou, Sharan Narang, Mihir\nKale, Adam Roberts, Colin Raffel.\n\nThe abstract from the paper is the following:\n\n*Most widely-used pre-trained language models operate on sequences of tokens corresponding to word or subword units.\nEncoding text as a sequence of tokens requires a tokenizer, which is typically created as an independent artifact from\nthe model. Token-free models that instead operate directly on raw text (bytes or characters) have many benefits: they\ncan process text in any language out of the box, they are more robust to noise, and they minimize technical debt by\nremoving complex and error-prone text preprocessing pipelines. Since byte or character sequences are longer than token\nsequences, past work on token-free models has often introduced new model architectures designed to amortize the cost of\noperating directly on raw text. In this paper, we show that a standard Transformer architecture can be used with\nminimal modifications to process byte sequences. We carefully characterize the trade-offs in terms of parameter count,\ntraining FLOPs, and inference speed, and show that byte-level models are competitive with their token-level\ncounterparts. We also demonstrate that byte-level models are significantly more robust to noise and perform better on\ntasks that are sensitive to spelling and pronunciation. As part of our contribution, we release a new set of\npre-trained byte-level Transformer models based on the T5 architecture, as well as all code and data used in our\nexperiments.*\n\nThis model was contributed by [patrickvonplaten](https://huggingface.co/patrickvonplaten). The original code can be\nfound [here](https://github.com/google-research/byt5).\n\n&lt;Tip&gt;\n\nByT5\'s architecture is based on the T5v1.1 model, refer to [T5v1.1\'s documentation page](t5v1.1) for the API reference. They\nonly differ in how inputs should be prepared for the model, see the code examples below.\n\n&lt;/Tip&gt;\n\nSince ByT5 was pre-trained unsupervisedly, there\'s no real advantage to using a task prefix during single-task\nfine-tuning. If you are doing multi-task fine-tuning, you should use a prefix.\n\n\n## Usage example\n\nByT5 works on raw UTF-8 bytes, so it can be used without a tokenizer:\n\n```python\n&gt;&gt;&gt; from transformers import T5ForConditionalGeneration\n&gt;&gt;&gt; import torch\n\n&gt;&gt;&gt; model = T5ForConditionalGeneration.from_pretrained("google/byt5-small")\n\n&gt;&gt;&gt; num_special_tokens = 3\n&gt;&gt;&gt; # Model has 3 special tokens which take up the input ids 0,1,2 of ByT5.\n&gt;&gt;&gt; # =&gt; Need to shift utf-8 character encodings by 3 before passing ids to model.\n\n&gt;&gt;&gt; input_ids = torch.tensor([list("Life is like a box of chocolates.".encode("utf-8"))]) + num_special_tokens\n\n&gt;&gt;&gt; labels = torch.tensor([list("La vie est comme une boîte de chocolat.".encode("utf-8"))]) + num_special_tokens\n\n&gt;&gt;&gt; loss = model(input_ids, labels=labels).loss\n&gt;&gt;&gt; loss.item()\n2.66\n```\n\nFor batched inference and training it is however recommended to make use of the tokenizer:\n\n```python\n&gt;&gt;&gt; from transformers import T5ForConditionalGeneration, AutoTokenizer', '| CharDelimiterSplit | Splits on a given character | Example with `x`: &lt;br&gt; Input: `"Helloxthere"` &lt;br&gt; Ouput: `"Hello", "there"`  |\n| Digits | Splits the numbers from any other characters. | Input: `"Hello123there"` &lt;br&gt;  Output: ``"Hello", "123", "there"``  |\n| Split | Versatile pre-tokenizer that splits on provided pattern and according to provided behavior. The pattern can be inverted if necessary. &lt;ul&gt; &lt;li&gt;pattern should be either a custom string or regexp.&lt;/li&gt; &lt;li&gt;behavior should be one of: &lt;ul&gt;&lt;li&gt;Removed&lt;/li&gt;&lt;li&gt;Isolated&lt;/li&gt;&lt;li&gt;MergedWithPrevious&lt;/li&gt;&lt;li&gt;MergedWithNext&lt;/li&gt;&lt;li&gt;Contiguous&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt; &lt;li&gt;invert should be a boolean flag.&lt;/li&gt; &lt;/ul&gt; | Example with pattern = ` `, behavior = `"isolated"`, invert = `False`: &lt;br&gt; Input: `"Hello, how are you?"` &lt;br&gt; Output: `"Hello,", " ", "how", " ", "are", " ", "you?"` |\n| Sequence | Lets you compose multiple `PreTokenizer` that will be run in the given order | `Sequence::new(vec![Punctuation, WhitespaceSplit])` |\n&lt;/rust&gt;\n&lt;node&gt;\n| Name | Description | Example |\n| :--- | :--- | :--- |\n| ByteLevel | Splits on whitespaces while remapping all the bytes to a set of visible characters. This technique as been introduced by OpenAI with GPT-2 and has some more or less nice properties: &lt;ul&gt; &lt;li&gt;Since it maps on bytes, a tokenizer using this only requires **256** characters as initial alphabet (the number of values a byte can have), as opposed to the 130,000+ Unicode characters.&lt;/li&gt; &lt;li&gt;A consequence of the previous point is that it is absolutely unnecessary to have an unknown token using this since we can represent anything with 256 tokens (Youhou!! 🎉🎉)&lt;/li&gt; &lt;li&gt;For non ascii characters, it gets completely unreadable, but it works nonetheless!&lt;/li&gt; &lt;/ul&gt; | Input: `"Hello my friend, how are you?"` &lt;br&gt; Ouput: `"Hello", "Ġmy", Ġfriend", ",", "Ġhow", "Ġare", "Ġyou", "?"`  |\n| Whitespace | Splits on word boundaries (using the following regular expression: `\\w+&amp;#124;[^\\w\\s]+` | Input: `"Hello there!"` &lt;br&gt; Output: `"Hello", "there", "!"`  |\n| WhitespaceSplit | Splits on any whitespace character | Input: `"Hello there!"` &lt;br&gt; Output: `"Hello", "there!"`  |\n| Punctuation | Will isolate all punctuation characters | Input: `"Hello?"` &lt;br&gt; Ouput: `"Hello", "?"`  |\n| Metaspace | Splits on whitespaces and replaces them with a special char “▁” (U+2581) | Input: `"Hello there"` &lt;br&gt; Ouput: `"Hello", "▁there"`  |\n| CharDelimiterSplit | Splits on a given character | Example with `x`: &lt;br&gt; Input: `"Helloxthere"` &lt;br&gt; Ouput: `"Hello", "there"`  |\n| Digits | Splits the numbers from any other characters. | Input: `"Hello123there"` &lt;br&gt;  Output: ``"Hello", "123", "there"``  |\n| Split | Versatile pre-tokenizer that splits on provided pattern and according to provided behavior. The pattern can be inverted if necessary. &lt;ul&gt; &lt;li&gt;pattern should be either a custom string or regexp.&lt;/li&gt; &lt;li&gt;behavior should be one of: &lt;ul&gt;&lt;li&gt;removed&lt;/li&gt;&lt;li&gt;isolated&lt;/li&gt;&lt;li&gt;mergedWithPrevious&lt;/li&gt;&lt;li&gt;mergedWithNext&lt;/li&gt;&lt;li&gt;contiguous&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt; &lt;li&gt;invert should be a boolean flag.&lt;/li&gt; &lt;/ul&gt; | Example with pattern = ` `, behavior = `"isolated"`, invert = `False`: &lt;br&gt; Input: `"Hello, how are you?"` &lt;br&gt; Output: `"Hello,", " ", "how", " ", "are", " ", "you?"` |\n| Sequence | Lets you compose multiple `PreTokenizer` that will be run in the given order | |\n&lt;/node&gt;\n&lt;/tokenizerslangcontent&gt;', '!--Copyright 2021 The HuggingFace Team. All rights reserved.\n\nLicensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with\nthe License. You may obtain a copy of the License at\n\nhttp://www.apache.org/licenses/LICENSE-2.0\n\nUnless required by applicable law or agreed to in writing, software distributed under the License is distributed on\nan "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the\nspecific language governing permissions and limitations under the License.\n\n⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n\n--&gt;\n\n# FNet\n\n## Overview\n\nThe FNet model was proposed in [FNet: Mixing Tokens with Fourier Transforms](https://arxiv.org/abs/2105.03824) by\nJames Lee-Thorp, Joshua Ainslie, Ilya Eckstein, Santiago Ontanon. The model replaces the self-attention layer in a BERT\nmodel with a fourier transform which returns only the real parts of the transform. The model is significantly faster\nthan the BERT model because it has fewer parameters and is more memory efficient. The model achieves about 92-97%\naccuracy of BERT counterparts on GLUE benchmark, and trains much faster than the BERT model. The abstract from the\npaper is the following:\n\n*We show that Transformer encoder architectures can be sped up, with limited accuracy costs, by replacing the\nself-attention sublayers with simple linear transformations that "mix" input tokens. These linear mixers, along with\nstandard nonlinearities in feed-forward layers, prove competent at modeling semantic relationships in several text\nclassification tasks. Most surprisingly, we find that replacing the self-attention sublayer in a Transformer encoder\nwith a standard, unparameterized Fourier Transform achieves 92-97% of the accuracy of BERT counterparts on the GLUE\nbenchmark, but trains 80% faster on GPUs and 70% faster on TPUs at standard 512 input lengths. At longer input lengths,\nour FNet model is significantly faster: when compared to the "efficient" Transformers on the Long Range Arena\nbenchmark, FNet matches the accuracy of the most accurate models, while outpacing the fastest models across all\nsequence lengths on GPUs (and across relatively shorter lengths on TPUs). Finally, FNet has a light memory footprint\nand is particularly efficient at smaller model sizes; for a fixed speed and accuracy budget, small FNet models\noutperform Transformer counterparts.*\n\nThis model was contributed by [gchhablani](https://huggingface.co/gchhablani). The original code can be found [here](https://github.com/google-research/google-research/tree/master/f_net).\n\n## Usage tips\n\nThe model was trained without an attention mask as it is based on Fourier Transform. The model was trained with \nmaximum sequence length 512 which includes pad tokens. Hence, it is highly recommended to use the same maximum \nsequence length for fine-tuning and inference.\n\n## Resources\n\n- [Text classification task guide](../tasks/sequence_classification)\n- [Token classification task guide](../tasks/token_classification)\n- [Question answering task guide](../tasks/question_answering)\n- [Masked language modeling task guide](../tasks/masked_language_modeling)\n- [Multiple choice task guide](../tasks/multiple_choice)\n\n## FNetConfig\n\n[[autodoc]] FNetConfig\n\n## FNetTokenizer\n\n[[autodoc]] FNetTokenizer\n    - build_inputs_with_special_tokens\n    - get_special_tokens_mask\n    - create_token_type_ids_from_sequences\n    - save_vocabulary\n\n## FNetTokenizerFast\n\n[[autodoc]] FNetTokenizerFast\n\n## FNetModel\n\n[[autodoc]] FNetModel\n    - forward\n\n## FNetForPreTraining\n\n[[autodoc]] FNetForPreTraining\n    - forward\n\n## FNetForMaskedLM\n\n[[autodoc]] FNetForMaskedLM\n    - forward\n\n## FNetForNextSentencePrediction\n\n[[autodoc]] FNetForNextSentencePrediction\n    - forward\n\n## FNetForSequenceClassification']</t>
+          <t>['`tokenizers-linux-x64-musl`\n\nThis is the **x86_64-unknown-linux-musl** binary for `tokenizers`', 'Components\n\nWhen building a Tokenizer, you can attach various types of components to\nthis Tokenizer in order to customize its behavior. This page lists most\nprovided components.\n\n## Normalizers\n\nA `Normalizer` is in charge of pre-processing the input string in order\nto normalize it as relevant for a given use case. Some common examples\nof normalization are the Unicode normalization algorithms (NFD, NFKD,\nNFC &amp; NFKC), lowercasing etc... The specificity of `tokenizers` is that\nwe keep track of the alignment while normalizing. This is essential to\nallow mapping from the generated tokens back to the input text.\n\nThe `Normalizer` is optional.', '!--Copyright 2021 The HuggingFace Team. All rights reserved.\n\nLicensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with\nthe License. You may obtain a copy of the License at\n\nhttp://www.apache.org/licenses/LICENSE-2.0\n\nUnless required by applicable law or agreed to in writing, software distributed under the License is distributed on\nan "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the\nspecific language governing permissions and limitations under the License.\n\n⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n\n--&gt;\n\n# ByT5\n\n## Overview\n\nThe ByT5 model was presented in [ByT5: Towards a token-free future with pre-trained byte-to-byte models](https://arxiv.org/abs/2105.13626) by Linting Xue, Aditya Barua, Noah Constant, Rami Al-Rfou, Sharan Narang, Mihir\nKale, Adam Roberts, Colin Raffel.\n\nThe abstract from the paper is the following:\n\n*Most widely-used pre-trained language models operate on sequences of tokens corresponding to word or subword units.\nEncoding text as a sequence of tokens requires a tokenizer, which is typically created as an independent artifact from\nthe model. Token-free models that instead operate directly on raw text (bytes or characters) have many benefits: they\ncan process text in any language out of the box, they are more robust to noise, and they minimize technical debt by\nremoving complex and error-prone text preprocessing pipelines. Since byte or character sequences are longer than token\nsequences, past work on token-free models has often introduced new model architectures designed to amortize the cost of\noperating directly on raw text. In this paper, we show that a standard Transformer architecture can be used with\nminimal modifications to process byte sequences. We carefully characterize the trade-offs in terms of parameter count,\ntraining FLOPs, and inference speed, and show that byte-level models are competitive with their token-level\ncounterparts. We also demonstrate that byte-level models are significantly more robust to noise and perform better on\ntasks that are sensitive to spelling and pronunciation. As part of our contribution, we release a new set of\npre-trained byte-level Transformer models based on the T5 architecture, as well as all code and data used in our\nexperiments.*\n\nThis model was contributed by [patrickvonplaten](https://huggingface.co/patrickvonplaten). The original code can be\nfound [here](https://github.com/google-research/byt5).\n\n&lt;Tip&gt;\n\nByT5\'s architecture is based on the T5v1.1 model, refer to [T5v1.1\'s documentation page](t5v1.1) for the API reference. They\nonly differ in how inputs should be prepared for the model, see the code examples below.\n\n&lt;/Tip&gt;\n\nSince ByT5 was pre-trained unsupervisedly, there\'s no real advantage to using a task prefix during single-task\nfine-tuning. If you are doing multi-task fine-tuning, you should use a prefix.\n\n\n## Usage example\n\nByT5 works on raw UTF-8 bytes, so it can be used without a tokenizer:\n\n```python\n&gt;&gt;&gt; from transformers import T5ForConditionalGeneration\n&gt;&gt;&gt; import torch\n\n&gt;&gt;&gt; model = T5ForConditionalGeneration.from_pretrained("google/byt5-small")\n\n&gt;&gt;&gt; num_special_tokens = 3\n&gt;&gt;&gt; # Model has 3 special tokens which take up the input ids 0,1,2 of ByT5.\n&gt;&gt;&gt; # =&gt; Need to shift utf-8 character encodings by 3 before passing ids to model.\n\n&gt;&gt;&gt; input_ids = torch.tensor([list("Life is like a box of chocolates.".encode("utf-8"))]) + num_special_tokens\n\n&gt;&gt;&gt; labels = torch.tensor([list("La vie est comme une boîte de chocolat.".encode("utf-8"))]) + num_special_tokens\n\n&gt;&gt;&gt; loss = model(input_ids, labels=labels).loss\n&gt;&gt;&gt; loss.item()\n2.66\n```\n\nFor batched inference and training it is however recommended to make use of the tokenizer:\n\n```python\n&gt;&gt;&gt; from transformers import T5ForConditionalGeneration, AutoTokenizer', '## Models\n\nModels are the core algorithms used to actually tokenize, and therefore,\nthey are the only mandatory component of a Tokenizer.\n\n| Name | Description |\n| :--- | :--- |\n| WordLevel | This is the “classic” tokenization algorithm. It let’s you simply map words to IDs without anything fancy. This has the advantage of being really simple to use and understand, but it requires extremely large vocabularies for a good coverage. Using this `Model` requires the use of a `PreTokenizer`. No choice will be made by this model directly, it simply maps input tokens to IDs.  |\n| BPE | One of the most popular subword tokenization algorithm. The Byte-Pair-Encoding works by starting with characters, while merging those that are the most frequently seen together, thus creating new tokens. It then works iteratively to build new tokens out of the most frequent pairs it sees in a corpus. BPE is able to build words it has never seen by using multiple subword tokens, and thus requires smaller vocabularies, with less chances of having “unk” (unknown) tokens.  |\n| WordPiece | This is a subword tokenization algorithm quite similar to BPE, used mainly by Google in models like BERT. It uses a greedy algorithm, that tries to build long words first, splitting in multiple tokens when entire words don’t exist in the vocabulary. This is different from BPE that starts from characters, building bigger tokens as possible. It uses the famous `##` prefix to identify tokens that are part of a word (ie not starting a word).  |\n| Unigram | Unigram is also a subword tokenization algorithm, and works by trying to identify the best set of subword tokens to maximize the probability for a given sentence. This is different from BPE in the way that this is not deterministic based on a set of rules applied sequentially. Instead Unigram will be able to compute multiple ways of tokenizing, while choosing the most probable one. |\n\n## Post-Processors\n\nAfter the whole pipeline, we sometimes want to insert some special\ntokens before feed a tokenized string into a model like "[CLS] My\nhorse is amazing [SEP]". The `PostProcessor` is the component doing\njust that.\n\n| Name | Description | Example |\n| :--- | :--- | :--- |\n| TemplateProcessing | Let’s you easily template the post processing, adding special tokens, and specifying the `type_id` for each sequence/special token. The template is given two strings representing the single sequence and the pair of sequences, as well as a set of special tokens to use. | Example, when specifying a template with these values:&lt;br&gt; &lt;ul&gt; &lt;li&gt; single: `"[CLS] $A [SEP]"` &lt;/li&gt; &lt;li&gt; pair: `"[CLS] $A [SEP] $B [SEP]"` &lt;/li&gt; &lt;li&gt; special tokens: &lt;ul&gt; &lt;li&gt;`"[CLS]"`&lt;/li&gt; &lt;li&gt;`"[SEP]"`&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;/ul&gt; &lt;br&gt; Input: `("I like this", "but not this")` &lt;br&gt; Output: `"[CLS] I like this [SEP] but not this [SEP]"` |\n\n## Decoders\n\nThe Decoder knows how to go from the IDs used by the Tokenizer, back to\na readable piece of text. Some `Normalizer` and `PreTokenizer` use\nspecial characters or identifiers that need to be reverted for example.\n\n| Name | Description |\n| :--- | :--- |\n| ByteLevel | Reverts the ByteLevel PreTokenizer. This PreTokenizer encodes at the byte-level, using a set of visible Unicode characters to represent each byte, so we need a Decoder to revert this process and get something readable again. |\n| Metaspace | Reverts the Metaspace PreTokenizer. This PreTokenizer uses a special identifer `▁` to identify whitespaces, and so this Decoder helps with decoding these. |\n| WordPiece | Reverts the WordPiece Model. This model uses a special identifier `##` for continuing subwords, and so this Decoder helps with decoding these. |', '| CharDelimiterSplit | Splits on a given character | Example with `x`: &lt;br&gt; Input: `"Helloxthere"` &lt;br&gt; Ouput: `"Hello", "there"`  |\n| Digits | Splits the numbers from any other characters. | Input: `"Hello123there"` &lt;br&gt;  Output: ``"Hello", "123", "there"``  |\n| Split | Versatile pre-tokenizer that splits on provided pattern and according to provided behavior. The pattern can be inverted if necessary. &lt;ul&gt; &lt;li&gt;pattern should be either a custom string or regexp.&lt;/li&gt; &lt;li&gt;behavior should be one of: &lt;ul&gt;&lt;li&gt;Removed&lt;/li&gt;&lt;li&gt;Isolated&lt;/li&gt;&lt;li&gt;MergedWithPrevious&lt;/li&gt;&lt;li&gt;MergedWithNext&lt;/li&gt;&lt;li&gt;Contiguous&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt; &lt;li&gt;invert should be a boolean flag.&lt;/li&gt; &lt;/ul&gt; | Example with pattern = ` `, behavior = `"isolated"`, invert = `False`: &lt;br&gt; Input: `"Hello, how are you?"` &lt;br&gt; Output: `"Hello,", " ", "how", " ", "are", " ", "you?"` |\n| Sequence | Lets you compose multiple `PreTokenizer` that will be run in the given order | `Sequence::new(vec![Punctuation, WhitespaceSplit])` |\n&lt;/rust&gt;\n&lt;node&gt;\n| Name | Description | Example |\n| :--- | :--- | :--- |\n| ByteLevel | Splits on whitespaces while remapping all the bytes to a set of visible characters. This technique as been introduced by OpenAI with GPT-2 and has some more or less nice properties: &lt;ul&gt; &lt;li&gt;Since it maps on bytes, a tokenizer using this only requires **256** characters as initial alphabet (the number of values a byte can have), as opposed to the 130,000+ Unicode characters.&lt;/li&gt; &lt;li&gt;A consequence of the previous point is that it is absolutely unnecessary to have an unknown token using this since we can represent anything with 256 tokens (Youhou!! 🎉🎉)&lt;/li&gt; &lt;li&gt;For non ascii characters, it gets completely unreadable, but it works nonetheless!&lt;/li&gt; &lt;/ul&gt; | Input: `"Hello my friend, how are you?"` &lt;br&gt; Ouput: `"Hello", "Ġmy", Ġfriend", ",", "Ġhow", "Ġare", "Ġyou", "?"`  |\n| Whitespace | Splits on word boundaries (using the following regular expression: `\\w+&amp;#124;[^\\w\\s]+` | Input: `"Hello there!"` &lt;br&gt; Output: `"Hello", "there", "!"`  |\n| WhitespaceSplit | Splits on any whitespace character | Input: `"Hello there!"` &lt;br&gt; Output: `"Hello", "there!"`  |\n| Punctuation | Will isolate all punctuation characters | Input: `"Hello?"` &lt;br&gt; Ouput: `"Hello", "?"`  |\n| Metaspace | Splits on whitespaces and replaces them with a special char “▁” (U+2581) | Input: `"Hello there"` &lt;br&gt; Ouput: `"Hello", "▁there"`  |\n| CharDelimiterSplit | Splits on a given character | Example with `x`: &lt;br&gt; Input: `"Helloxthere"` &lt;br&gt; Ouput: `"Hello", "there"`  |\n| Digits | Splits the numbers from any other characters. | Input: `"Hello123there"` &lt;br&gt;  Output: ``"Hello", "123", "there"``  |\n| Split | Versatile pre-tokenizer that splits on provided pattern and according to provided behavior. The pattern can be inverted if necessary. &lt;ul&gt; &lt;li&gt;pattern should be either a custom string or regexp.&lt;/li&gt; &lt;li&gt;behavior should be one of: &lt;ul&gt;&lt;li&gt;removed&lt;/li&gt;&lt;li&gt;isolated&lt;/li&gt;&lt;li&gt;mergedWithPrevious&lt;/li&gt;&lt;li&gt;mergedWithNext&lt;/li&gt;&lt;li&gt;contiguous&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt; &lt;li&gt;invert should be a boolean flag.&lt;/li&gt; &lt;/ul&gt; | Example with pattern = ` `, behavior = `"isolated"`, invert = `False`: &lt;br&gt; Input: `"Hello, how are you?"` &lt;br&gt; Output: `"Hello,", " ", "how", " ", "are", " ", "you?"` |\n| Sequence | Lets you compose multiple `PreTokenizer` that will be run in the given order | |\n&lt;/node&gt;\n&lt;/tokenizerslangcontent&gt;']</t>
         </is>
       </c>
     </row>
@@ -887,7 +874,7 @@
 1. Load a dataset from the Hugging Face Hub.
 2. Preprocess the data with Dataset.map().
 3. Load and compute metrics.
-The introduction specifically mentions these three steps as what was covered in Chapter 3 for fine-tuning a model using 🤗 Datasets.</t>
+The introduction specifically mentions these as the "three main steps when it came to fine-tuning a model" that were covered in Chapter 3.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -959,9 +946,8 @@
           <t>Based on the context provided, Gradio can be used for:
 1. Creating demos for machine learning models - With just a few lines of Python code, you can generate a demo for your ML model using Gradio's library of pre-built components.
 2. Sharing machine learning models with others - Using the share=True parameter in the launch method, you can generate a share link to send to anyone.
-3. Debugging models - Gradio demos allow you to test your model with real data that you can change and observe the model's predictions change in real-time, helping with debugging.
-The context specifically states that Gradio is not designed for training models, but rather for model inference after a model is trained.
-So in summary, Gradio is a tool for easily creating interactive demos and interfaces for machine learning models to aid in sharing, testing, and debugging those models.</t>
+3. Debugging models - Gradio demos allow you to test your model with real data that you can change and observe the model's predictions change in real-time, helping you debug your model.
+The context explicitly states that Gradio is not designed for training models, but rather for model inference after a model is trained.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -994,11 +980,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Based on the context provided, the command to install the requirements for a research project using 🤗 Transformers is:
+          <t>According to the context provided, to install the requirements for a research project using 🤗 Transformers, you should run the following command inside the folder of the project you want to use:
 ```
 pip install -r requirements.txt
 ```
-This command should be run inside the folder of the specific research project you want to use.</t>
+The context specifically states:
+"To use any of them, just run the command
+```
+pip install -r requirements.txt
+```
+inside the folder of your choice."
+This command will install the dependencies listed in the requirements.txt file for that particular research project.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1031,14 +1023,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PyTorch provides the `torchrun` command line module to run a script on multiple GPUs.
-Specifically, the tutorial mentions:
+          <t>According to the tutorial, PyTorch provides the `torchrun` command line module to run a script on multiple GPUs. Specifically, it mentions:
 "Lastly, to run the script PyTorch has a convenient `torchrun` command line module that can help. Just pass in the number of nodes it should use as well as the script to run and you are set:
 ```bash
 torchrun --nproc_per_node=2 --nnodes=1 example_script.py
 ```
 The above will run the training script on two GPUs that live on a single machine"
-So `torchrun` allows you to easily launch distributed training across multiple GPUs by specifying options like the number of processes per node and number of nodes. It handles setting up the distributed environment automatically.</t>
+So `torchrun` is the command line module PyTorch provides to easily launch distributed training on multiple GPUs.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1072,13 +1063,11 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>Based on the context provided, RAG (Retrieval-augmented generation) models combine:
-1. A pretrained dense retrieval (DPR) model
-2. A pretrained sequence-to-sequence model
-Specifically, RAG models:
-- Retrieve documents using the retriever
-- Pass the retrieved documents to the seq2seq model 
-- Marginalize to generate outputs
-The retriever and seq2seq modules are initialized from pretrained models and then fine-tuned jointly, allowing both retrieval and generation to adapt to downstream tasks.</t>
+1. Pretrained dense retrieval (DPR)
+2. Sequence-to-sequence models
+Specifically, the context states:
+"Retrieval-augmented generation ("RAG") models combine the powers of pretrained dense retrieval (DPR) and sequence-to-sequence models. RAG models retrieve documents, pass them to a seq2seq model, then marginalize to generate outputs."
+So RAG models use a retriever to fetch relevant documents, and then use a seq2seq model to generate outputs based on those retrieved documents.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1111,10 +1100,10 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>According to the context, the more secure file format recommended for saving and storing PyTorch model weights is `.safetensors`.
+          <t>According to the context, the more secure file format recommended for saving and storing PyTorch model weights is the `.safetensors` format.
 Specifically, the context states:
 "To save and store your model weights in the more secure `safetensor` format, we recommend converting your weights to `.safetensors`."
-This `.safetensors` format is presented as a more secure alternative to the commonly used `.bin` files that use Python's `pickle` utility for storing PyTorch model weights.</t>
+So the `.safetensors` format is presented as a more secure alternative to the commonly used `.bin` files for storing PyTorch model weights.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1124,12 +1113,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['huggingface/safetensors/blob/main/docs/source/convert-weights.md', 'huggingface/transformers/blob/main/docs/source/en/big_models.md', 'huggingface/transformers/blob/main/docs/source/en/big_models.md', 'huggingface/safetensors/blob/main/docs/source/api/tensorflow.mdx', 'huggingface/hub-docs/blob/main/docs/hub/security.md']</t>
+          <t>['huggingface/safetensors/blob/main/docs/source/convert-weights.md', 'huggingface/transformers/blob/main/docs/source/en/big_models.md', 'huggingface/transformers/blob/main/docs/source/en/big_models.md', 'huggingface/safetensors/blob/main/docs/source/api/tensorflow.mdx', 'huggingface/transformers/blob/main/docs/source/en/perf_train_gpu_one.md']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>["Convert weights to safetensors\n\nPyTorch model weights are commonly saved and stored as `.bin` files with Python's [`pickle`](https://docs.python.org/3/library/pickle.html) utility. To save and store your model weights in the more secure `safetensor` format, we recommend converting your weights to `.safetensors`.\n\nThe easiest way to convert your model weights is to use the [Convert Space](https://huggingface.co/spaces/diffusers/convert), given your model weights are already stored on the Hub. The Convert Space downloads the pickled weights, converts them, and opens a Pull Request to upload the newly converted `.safetensors` file to your repository.\n\n&lt;Tip warning={true}&gt;\n\nFor larger models, the Space may be a bit slower because its resources are tied up in converting other models. You can also try running the [convert.py](https://github.com/huggingface/safetensors/blob/main/bindings/python/convert.py) script (this is what the Space is running) locally to convert your weights.\n\nFeel free to ping [@Narsil](https://huggingface.co/Narsil) for any issues with the Space.\n\n&lt;/Tip&gt;", '```py\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     new_model = AutoModel.from_pretrained(tmp_dir)\n```\n\nThe main advantage of doing this for big models is that during step 2 of the workflow shown above, each shard of the checkpoint is loaded after the previous one, capping the memory usage in RAM to the model size plus the size of the biggest shard.\n\nBehind the scenes, the index file is used to determine which keys are in the checkpoint, and where the corresponding weights are stored. We can load that index like any json and get a dictionary:\n\n```py\n&gt;&gt;&gt; import json\n\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     with open(os.path.join(tmp_dir, "pytorch_model.bin.index.json"), "r") as f:\n...         index = json.load(f)\n\n&gt;&gt;&gt; print(index.keys())\ndict_keys([\'metadata\', \'weight_map\'])\n```\n\nThe metadata just consists of the total size of the model for now. We plan to add other information in the future:\n\n```py\n&gt;&gt;&gt; index["metadata"]\n{\'total_size\': 433245184}\n```\n\nThe weights map is the main part of this index, which maps each parameter name (as usually found in a PyTorch model `state_dict`) to the file it\'s stored in:\n\n```py\n&gt;&gt;&gt; index["weight_map"]\n{\'embeddings.LayerNorm.bias\': \'pytorch_model-00001-of-00003.bin\',\n \'embeddings.LayerNorm.weight\': \'pytorch_model-00001-of-00003.bin\',\n ...\n```\n\nIf you want to directly load such a sharded checkpoint inside a model without using [`~PreTrainedModel.from_pretrained`] (like you would do `model.load_state_dict()` for a full checkpoint) you should use [`~modeling_utils.load_sharded_checkpoint`]:\n\n```py\n&gt;&gt;&gt; from transformers.modeling_utils import load_sharded_checkpoint\n\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     load_sharded_checkpoint(model, tmp_dir)\n```\n\n## Low memory loading\n\nSharded checkpoints reduce the memory usage during step 2 of the workflow mentioned above, but in order to use that model in a low memory setting, we recommend leveraging our tools based on the Accelerate library.\n\nPlease read the following guide for more information: [Large model loading using Accelerate](./main_classes/model#large-model-loading)', '!--Copyright 2022 The HuggingFace Team. All rights reserved.\n\nLicensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with\nthe License. You may obtain a copy of the License at\n\nhttp://www.apache.org/licenses/LICENSE-2.0\n\nUnless required by applicable law or agreed to in writing, software distributed under the License is distributed on\nan "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the\nspecific language governing permissions and limitations under the License.\n\n⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n\n--&gt;\n\n# Instantiating a big model\n\nWhen you want to use a very big pretrained model, one challenge is to minimize the use of the RAM. The usual workflow\nfrom PyTorch is:\n\n1. Create your model with random weights.\n2. Load your pretrained weights.\n3. Put those pretrained weights in your random model.\n\nStep 1 and 2 both require a full version of the model in memory, which is not a problem in most cases, but if your model starts weighing several GigaBytes, those two copies can make you get out of RAM. Even worse, if you are using `torch.distributed` to launch a distributed training, each process will load the pretrained model and store these two copies in RAM.\n\n&lt;Tip&gt;\n\nNote that the randomly created model is initialized with "empty" tensors, which take the space in memory without filling it (thus the random values are whatever was in this chunk of memory at a given time). The random initialization following the appropriate distribution for the kind of model/parameters instantiated (like a normal distribution for instance) is only performed after step 3 on the non-initialized weights, to be as fast as possible! \n\n&lt;/Tip&gt;\n\nIn this guide, we explore the solutions Transformers offer to deal with this issue. Note that this is an area of active development, so the APIs explained here may change slightly in the future.\n\n## Sharded checkpoints\n\nSince version 4.18.0, model checkpoints that end up taking more than 10GB of space are automatically sharded in smaller pieces. In terms of having one single checkpoint when you do `model.save_pretrained(save_dir)`, you will end up with several partial checkpoints (each of which being of size &lt; 10GB) and an index that maps parameter names to the files they are stored in.\n\nYou can control the maximum size before sharding with the `max_shard_size` parameter, so for the sake of an example, we\'ll use a normal-size models with a small shard size: let\'s take a traditional BERT model.\n\n```py\nfrom transformers import AutoModel\n\nmodel = AutoModel.from_pretrained("bert-base-cased")\n```\n\nIf you save it using [`~PreTrainedModel.save_pretrained`], you will get a new folder with two files: the config of the model and its weights:\n\n```py\n&gt;&gt;&gt; import os\n&gt;&gt;&gt; import tempfile\n\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir)\n...     print(sorted(os.listdir(tmp_dir)))\n[\'config.json\', \'pytorch_model.bin\']\n```\n\nNow let\'s use a maximum shard size of 200MB:\n\n```py\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     print(sorted(os.listdir(tmp_dir)))\n[\'config.json\', \'pytorch_model-00001-of-00003.bin\', \'pytorch_model-00002-of-00003.bin\', \'pytorch_model-00003-of-00003.bin\', \'pytorch_model.bin.index.json\']\n```\n\nOn top of the configuration of the model, we see three different weights files, and an `index.json` file which is our index. A checkpoint like this can be fully reloaded using the [`~PreTrainedModel.from_pretrained`] method:\n\n```py\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     new_model = AutoModel.from_pretrained(tmp_dir)\n```', 'Tensorflow API\n\n[[autodoc]] safetensors.tensorflow.load_file\n[[autodoc]] safetensors.tensorflow.load\n[[autodoc]] safetensors.tensorflow.save_file\n[[autodoc]] safetensors.tensorflow.save', 'Security\n\nThe Hugging Face Hub offers several security features to ensure that your code and data are secure. Beyond offering [private repositories](./repositories-settings#private-repositories) for models, datasets, and Spaces, the Hub supports access tokens, commit signatures, and malware scanning.\n\nHugging Face is GDPR compliant. If a contract or specific data storage is something you\'ll need, we recommend taking a look at our [Expert Acceleration Program](https://huggingface.co/support). Hugging Face can also offer Business Associate Addendums or GDPR data processing agreements through an [Enterprise Plan](https://huggingface.co/pricing). \n\nHugging Face is also [SOC2 Type 2 certified](https://us.aicpa.org/interestareas/frc/assuranceadvisoryservices/aicpasoc2report.html), meaning we provide security certification to our customers and actively monitor and patch any security weaknesses.\n\n&lt;img width="150" src="https://huggingface.co/datasets/huggingface/documentation-images/resolve/main/hub/security-soc-1.jpg"&gt;\n\nFor any other security questions, please feel free to send us an email at security@huggingface.co.\n\n## Contents\n\n- [User Access Tokens](./security-tokens)\n- [Git over SSH](./security-git-ssh)\n- [Signing commits with GPG](./security-gpg)\n- [Single Sign-On (SSO)](./security-sso)\n- [Malware Scanning](./security-malware)\n- [Pickle Scanning](./security-pickle)\n- [Secrets Scanning](./security-secrets)']</t>
+          <t>["Convert weights to safetensors\n\nPyTorch model weights are commonly saved and stored as `.bin` files with Python's [`pickle`](https://docs.python.org/3/library/pickle.html) utility. To save and store your model weights in the more secure `safetensor` format, we recommend converting your weights to `.safetensors`.\n\nThe easiest way to convert your model weights is to use the [Convert Space](https://huggingface.co/spaces/diffusers/convert), given your model weights are already stored on the Hub. The Convert Space downloads the pickled weights, converts them, and opens a Pull Request to upload the newly converted `.safetensors` file to your repository.\n\n&lt;Tip warning={true}&gt;\n\nFor larger models, the Space may be a bit slower because its resources are tied up in converting other models. You can also try running the [convert.py](https://github.com/huggingface/safetensors/blob/main/bindings/python/convert.py) script (this is what the Space is running) locally to convert your weights.\n\nFeel free to ping [@Narsil](https://huggingface.co/Narsil) for any issues with the Space.\n\n&lt;/Tip&gt;", '```py\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     new_model = AutoModel.from_pretrained(tmp_dir)\n```\n\nThe main advantage of doing this for big models is that during step 2 of the workflow shown above, each shard of the checkpoint is loaded after the previous one, capping the memory usage in RAM to the model size plus the size of the biggest shard.\n\nBehind the scenes, the index file is used to determine which keys are in the checkpoint, and where the corresponding weights are stored. We can load that index like any json and get a dictionary:\n\n```py\n&gt;&gt;&gt; import json\n\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     with open(os.path.join(tmp_dir, "pytorch_model.bin.index.json"), "r") as f:\n...         index = json.load(f)\n\n&gt;&gt;&gt; print(index.keys())\ndict_keys([\'metadata\', \'weight_map\'])\n```\n\nThe metadata just consists of the total size of the model for now. We plan to add other information in the future:\n\n```py\n&gt;&gt;&gt; index["metadata"]\n{\'total_size\': 433245184}\n```\n\nThe weights map is the main part of this index, which maps each parameter name (as usually found in a PyTorch model `state_dict`) to the file it\'s stored in:\n\n```py\n&gt;&gt;&gt; index["weight_map"]\n{\'embeddings.LayerNorm.bias\': \'pytorch_model-00001-of-00003.bin\',\n \'embeddings.LayerNorm.weight\': \'pytorch_model-00001-of-00003.bin\',\n ...\n```\n\nIf you want to directly load such a sharded checkpoint inside a model without using [`~PreTrainedModel.from_pretrained`] (like you would do `model.load_state_dict()` for a full checkpoint) you should use [`~modeling_utils.load_sharded_checkpoint`]:\n\n```py\n&gt;&gt;&gt; from transformers.modeling_utils import load_sharded_checkpoint\n\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     load_sharded_checkpoint(model, tmp_dir)\n```\n\n## Low memory loading\n\nSharded checkpoints reduce the memory usage during step 2 of the workflow mentioned above, but in order to use that model in a low memory setting, we recommend leveraging our tools based on the Accelerate library.\n\nPlease read the following guide for more information: [Large model loading using Accelerate](./main_classes/model#large-model-loading)', '!--Copyright 2022 The HuggingFace Team. All rights reserved.\n\nLicensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with\nthe License. You may obtain a copy of the License at\n\nhttp://www.apache.org/licenses/LICENSE-2.0\n\nUnless required by applicable law or agreed to in writing, software distributed under the License is distributed on\nan "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the\nspecific language governing permissions and limitations under the License.\n\n⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n\n--&gt;\n\n# Instantiating a big model\n\nWhen you want to use a very big pretrained model, one challenge is to minimize the use of the RAM. The usual workflow\nfrom PyTorch is:\n\n1. Create your model with random weights.\n2. Load your pretrained weights.\n3. Put those pretrained weights in your random model.\n\nStep 1 and 2 both require a full version of the model in memory, which is not a problem in most cases, but if your model starts weighing several GigaBytes, those two copies can make you get out of RAM. Even worse, if you are using `torch.distributed` to launch a distributed training, each process will load the pretrained model and store these two copies in RAM.\n\n&lt;Tip&gt;\n\nNote that the randomly created model is initialized with "empty" tensors, which take the space in memory without filling it (thus the random values are whatever was in this chunk of memory at a given time). The random initialization following the appropriate distribution for the kind of model/parameters instantiated (like a normal distribution for instance) is only performed after step 3 on the non-initialized weights, to be as fast as possible! \n\n&lt;/Tip&gt;\n\nIn this guide, we explore the solutions Transformers offer to deal with this issue. Note that this is an area of active development, so the APIs explained here may change slightly in the future.\n\n## Sharded checkpoints\n\nSince version 4.18.0, model checkpoints that end up taking more than 10GB of space are automatically sharded in smaller pieces. In terms of having one single checkpoint when you do `model.save_pretrained(save_dir)`, you will end up with several partial checkpoints (each of which being of size &lt; 10GB) and an index that maps parameter names to the files they are stored in.\n\nYou can control the maximum size before sharding with the `max_shard_size` parameter, so for the sake of an example, we\'ll use a normal-size models with a small shard size: let\'s take a traditional BERT model.\n\n```py\nfrom transformers import AutoModel\n\nmodel = AutoModel.from_pretrained("bert-base-cased")\n```\n\nIf you save it using [`~PreTrainedModel.save_pretrained`], you will get a new folder with two files: the config of the model and its weights:\n\n```py\n&gt;&gt;&gt; import os\n&gt;&gt;&gt; import tempfile\n\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir)\n...     print(sorted(os.listdir(tmp_dir)))\n[\'config.json\', \'pytorch_model.bin\']\n```\n\nNow let\'s use a maximum shard size of 200MB:\n\n```py\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     print(sorted(os.listdir(tmp_dir)))\n[\'config.json\', \'pytorch_model-00001-of-00003.bin\', \'pytorch_model-00002-of-00003.bin\', \'pytorch_model-00003-of-00003.bin\', \'pytorch_model.bin.index.json\']\n```\n\nOn top of the configuration of the model, we see three different weights files, and an `index.json` file which is our index. A checkpoint like this can be fully reloaded using the [`~PreTrainedModel.from_pretrained`] method:\n\n```py\n&gt;&gt;&gt; with tempfile.TemporaryDirectory() as tmp_dir:\n...     model.save_pretrained(tmp_dir, max_shard_size="200MB")\n...     new_model = AutoModel.from_pretrained(tmp_dir)\n```', 'Tensorflow API\n\n[[autodoc]] safetensors.tensorflow.load_file\n[[autodoc]] safetensors.tensorflow.load\n[[autodoc]] safetensors.tensorflow.save_file\n[[autodoc]] safetensors.tensorflow.save', 'Choose which backend to use by specifying it via `torch_compile_backend` in the [`TrainingArguments`].  Some of the most commonly used backends are:\n\n**Debugging backends**:\n* `dynamo.optimize("eager")` - Uses PyTorch to run the extracted GraphModule. This is quite useful in debugging TorchDynamo issues.\n* `dynamo.optimize("aot_eager")` - Uses AotAutograd with no compiler, i.e, just using PyTorch eager for the AotAutograd\'s extracted forward and backward graphs. This is useful for debugging, and unlikely to give speedups.\n\n**Training &amp; inference backends**:\n* `dynamo.optimize("inductor")` - Uses TorchInductor backend with AotAutograd and cudagraphs by leveraging codegened Triton kernels  [Read more](https://dev-discuss.pytorch.org/t/torchinductor-a-pytorch-native-compiler-with-define-by-run-ir-and-symbolic-shapes/747)\n* `dynamo.optimize("nvfuser")` -  nvFuser with TorchScript. [Read more](https://dev-discuss.pytorch.org/t/tracing-with-primitives-update-1-nvfuser-and-its-primitives/593)\n* `dynamo.optimize("aot_nvfuser")` -  nvFuser with AotAutograd. [Read more](https://dev-discuss.pytorch.org/t/tracing-with-primitives-update-1-nvfuser-and-its-primitives/593)\n* `dynamo.optimize("aot_cudagraphs")` - cudagraphs with AotAutograd. [Read more](https://github.com/pytorch/torchdynamo/pull/757)\n\n**Inference-only backend**s:\n* `dynamo.optimize("ofi")` -  Uses Torchscript optimize_for_inference.  [Read more](https://pytorch.org/docs/stable/generated/torch.jit.optimize_for_inference.html)\n* `dynamo.optimize("fx2trt")` -  Uses NVIDIA TensorRT for inference optimizations.  [Read more](https://pytorch.org/TensorRT/tutorials/getting_started_with_fx_path.html)\n* `dynamo.optimize("onnxrt")` -  Uses ONNXRT for inference on CPU/GPU.  [Read more](https://onnxruntime.ai/)\n* `dynamo.optimize("ipex")` -  Uses IPEX for inference on CPU.  [Read more](https://github.com/intel/intel-extension-for-pytorch)\n\nFor an example of using `torch.compile` with 🤗 Transformers, check out this [blog post on fine-tuning a BERT model for Text Classification using the newest PyTorch 2.0 features](https://www.philschmid.de/getting-started-pytorch-2-0-transformers)\n\n## Using 🤗 Accelerate\n\nWith [🤗 Accelerate](https://huggingface.co/docs/accelerate/index) you can use the above methods while gaining full \ncontrol over the training loop and can essentially write the loop in pure PyTorch with some minor modifications. \n\nSuppose you have combined the methods in the [`TrainingArguments`] like so:\n\n```py\ntraining_args = TrainingArguments(\n    per_device_train_batch_size=1,\n    gradient_accumulation_steps=4,\n    gradient_checkpointing=True,\n    fp16=True,\n    **default_args,\n)\n```\n\nThe full example training loop with 🤗 Accelerate is only a handful of lines of code long:\n\n```py\nfrom accelerate import Accelerator\nfrom torch.utils.data.dataloader import DataLoader\n\ndataloader = DataLoader(ds, batch_size=training_args.per_device_train_batch_size)\n\nif training_args.gradient_checkpointing:\n    model.gradient_checkpointing_enable()\n\naccelerator = Accelerator(fp16=training_args.fp16)\nmodel, optimizer, dataloader = accelerator.prepare(model, adam_bnb_optim, dataloader)\n\nmodel.train()\nfor step, batch in enumerate(dataloader, start=1):\n    loss = model(**batch).loss\n    loss = loss / training_args.gradient_accumulation_steps\n    accelerator.backward(loss)\n    if step % training_args.gradient_accumulation_steps == 0:\n        optimizer.step()\n        optimizer.zero_grad()\n```']</t>
         </is>
       </c>
     </row>
@@ -1147,22 +1136,10 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>To add custom Python dependencies for Inference Endpoints, you should add a `requirements.txt` file to your model repository on the Hugging Face Hub.
-The key points are:
-- Add a `requirements.txt` file to your model repository
-- List the Python dependencies you want to install in this file
-- When creating the Endpoint, Inference Endpoints will check for this file and install the listed dependencies
-For example, a `requirements.txt` file might look like:
-```
-optimum[onnxruntime]==1.2.3
-mkl-include
-mkl
-```
-This allows you to:
-- Customize your inference pipeline with additional dependencies
-- Use models that require specific library versions
-- Install any Python packages needed for your model
-The `requirements.txt` file gives you flexibility to add whatever custom dependencies your model needs beyond the base libraries included in the Inference Endpoints image.</t>
+          <t>Based on the context provided, to add custom Python dependencies for Inference Endpoints, you should add a `requirements.txt` file to your model repository on the Hugging Face Hub.
+Specifically, the context states:
+"To add custom dependencies, add a `requirements.txt` [file](https://huggingface.co/philschmid/distilbert-onnx-banking77/blob/main/requirements.txt) with the Python dependencies you want to install in your model repository on the Hugging Face Hub. When your Endpoint and Image artifacts are created, Inference Endpoints checks if the model repository contains a `requirements.txt ` file and installs the dependencies listed within."
+So the correct file to add is `requirements.txt`, which should list the Python dependencies you want to install for your Inference Endpoint.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1172,12 +1149,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['huggingface/hf-endpoints-documentation/blob/main/docs/source/guides/custom_dependencies.mdx', 'huggingface/blog/blob/main/skops.md', 'huggingface/blog/blob/main/skops.md', 'huggingface/blog/blob/main/skops.md', 'huggingface/huggingface_hub/blob/main/docs/source/en/guides/repository.md']</t>
+          <t>['huggingface/hf-endpoints-documentation/blob/main/docs/source/guides/custom_dependencies.mdx', 'huggingface/blog/blob/main/skops.md', 'huggingface/blog/blob/main/skops.md', 'huggingface/hf-endpoints-documentation/blob/main/docs/source/guides/logs.mdx', 'huggingface/blog/blob/main/skops.md']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Add custom Dependencies\n\nInference Endpoints’ base image includes all required libraries to run inference on 🤗 Transformers models, but it also supports custom dependencies. This is useful if you want to:\n\n* [customize your inference pipeline](/docs/inference-endpoints/guides/custom_handler) and need additional Python dependencies\n* run a model which requires special dependencies like the newest or a fixed version of a library (for example, `tapas` (`torch-scatter`)).\n\nTo add custom dependencies, add a `requirements.txt` [file](https://huggingface.co/philschmid/distilbert-onnx-banking77/blob/main/requirements.txt) with the Python dependencies you want to install in your model repository on the Hugging Face Hub. When your Endpoint and Image artifacts are created, Inference Endpoints checks if the model repository contains a `requirements.txt ` file and installs the dependencies listed within.\n\n```bash\noptimum[onnxruntime]==1.2.3\nmkl-include\nmkl\n```\n\nCheck out the `requirements.txt` files in the following model repositories for examples:\n\n* [Optimum and onnxruntime](https://huggingface.co/philschmid/distilbert-onnx-banking77/blob/main/requirements.txt)\n* [diffusers](https://huggingface.co/philschmid/stable-diffusion-v1-4-endpoints/blob/main/requirements.txt)\n\nFor more information, take a look at how you can create and install dependencies when you [use your own custom container](/docs/inference-endpoints/guides/custom_container) for inference.', 'The inference widget is enabled to make predictions in the repository.\n\n![Hosted Inference Widget](assets/94_skops/skops_widget.png)\n\nIf the requirements of your project have changed, you can use `update_env` to update the environment.\n\n```python\nhub_utils.update_env(path=local_repo, requirements=["scikit-learn"])\n```\n\nYou can see the example repository pushed with above code [here](https://huggingface.co/scikit-learn/skops-blog-example).\nWe have prepared two examples to show how to save your models and use model card utilities. You can find them in the resources section below.\n\n\n##\xa0Resources\n- [Model card tutorial](https://skops.readthedocs.io/en/latest/auto_examples/plot_model_card.html)\n- [hub_utils tutorial](https://skops.readthedocs.io/en/latest/auto_examples/plot_hf_hub.html)\n- [skops documentation](https://skops.readthedocs.io/en/latest/modules/classes.html)', 'You can create the model card by instantiating the `Card` class from `skops`. During model serialization, the task name and library name are written to the configuration file. This information is also needed in the card\'s metadata, so you can use the `metadata_from_config` method to extract the metadata from the configuration file and pass it to the card when you create it. You can add information and metadata using `add`.\n\n```python\nfrom skops import card\n\n# create the card \nmodel_card = card.Card(model, metadata=card.metadata_from_config(Path(destination_folder)))\n\nlimitations = "This model is not ready to be used in production."\nmodel_description = "This is a DecisionTreeClassifier model trained on breast cancer dataset."\nmodel_card_authors = "skops_user"\nget_started_code = "import pickle \\nwith open(dtc_pkl_filename, \'rb\') as file: \\n    clf = pickle.load(file)"\ncitation_bibtex = "bibtex\\n@inproceedings{...,year={2020}}"\n\n# we can add the information using add\nmodel_card.add(\n    citation_bibtex=citation_bibtex,\n    get_started_code=get_started_code,\n    model_card_authors=model_card_authors,\n    limitations=limitations,\n    model_description=model_description,\n)\n\n# we can set the metadata part directly\nmodel_card.metadata.license = "mit"\n```\n\nWe will now evaluate the model and add a description of the evaluation method with `add`. The metrics are added by `add_metrics`, which will be parsed into a table. \n\n```python\nfrom sklearn.metrics import (ConfusionMatrixDisplay, confusion_matrix,\n                            accuracy_score, f1_score)\n# let\'s make a prediction and evaluate the model\ny_pred = model.predict(X_test)\n# we can pass metrics using add_metrics and pass details with add\nmodel_card.add(eval_method="The model is evaluated using test split, on accuracy and F1 score with macro average.")\nmodel_card.add_metrics(accuracy=accuracy_score(y_test, y_pred))\nmodel_card.add_metrics(**{"f1 score": f1_score(y_test, y_pred, average="micro")})\n```\n\nWe can also add any plot of our choice to the card using `add_plot` like below.\n\n```python\nimport matplotlib.pyplot as plt\nfrom pathlib import Path\n# we will create a confusion matrix\ncm = confusion_matrix(y_test, y_pred, labels=model.classes_)\ndisp = ConfusionMatrixDisplay(confusion_matrix=cm, display_labels=model.classes_)\ndisp.plot()\n\n# save the plot\nplt.savefig(Path(local_repo) / "confusion_matrix.png")\n\n# the plot will be written to the model card under the name confusion_matrix\n#\xa0we pass the path of the plot itself\nmodel_card.add_plot(confusion_matrix="confusion_matrix.png")\n```\n\nLet\'s save the model card in the local repository. The file name here should be `README.md` since it is what Hugging Face Hub expects.\n```python\nmodel_card.save(Path(local_repo) / "README.md")\n```\n\nWe can now push the repository to the Hugging Face Hub. For this, we will use `push` from `hub_utils`. Hugging Face Hub requires tokens for authentication, therefore you need to pass your token in either  `notebook_login` if you\'re logging in from a notebook, or `huggingface-cli login` if you\'re logging in from the CLI.\n\n```python\n# if the repository doesn\'t exist remotely on the Hugging Face Hub, it will be created when we set create_remote to True\nrepo_id = "skops-user/my-awesome-model"\nhub_utils.push(\n    repo_id=repo_id,\n    source=local_repo,\n    token=token,\n    commit_message="pushing files to the repo from the example!",\n    create_remote=True,\n)\n```\n\nOnce we push the model to the Hub, anyone can use it unless the repository is private. You can download the models using `download`. Apart from the model file, the repository contains the model configuration and the environment requirements.\n\n```python\ndownload_repo = "downloaded-model"\nhub_utils.download(repo_id=repo_id, dst=download_repo)\n```\n\nThe inference widget is enabled to make predictions in the repository.\n\n![Hosted Inference Widget](assets/94_skops/skops_widget.png)', '--\ntitle: "Introducing Skops"\nthumbnail: /blog/assets/94_skops/introducing_skops.png\nauthors:\n- user: merve\n- user: adrin\n- user: BenjaminB\n---\n\n# Introducing Skops\n\n\n##\xa0Introducing Skops\n\nAt Hugging Face, we are working on tackling various problems in open-source machine learning, including, hosting models securely and openly, enabling reproducibility, explainability and collaboration. We are thrilled to introduce you to our new library: Skops! With Skops, you can host your scikit-learn models on the Hugging Face Hub, create model cards for model documentation and collaborate with others.\n\nLet\'s go through an end-to-end example: train a model first, and see step-by-step how to leverage Skops for sklearn in production.\n\n```python\n# let\'s import the libraries first\nimport sklearn\nfrom sklearn.datasets import load_breast_cancer\nfrom sklearn.tree import DecisionTreeClassifier\nfrom sklearn.model_selection import train_test_split\n\n# Load the data and split\nX, y = load_breast_cancer(as_frame=True, return_X_y=True)\nX_train, X_test, y_train, y_test = train_test_split(\n    X, y, test_size=0.3, random_state=42\n)\n\n# Train the model\nmodel = DecisionTreeClassifier().fit(X_train, y_train)\n```\n\nYou can use any model filename and serialization method, like `pickle` or `joblib`. At the moment, our backend uses `joblib` to load the model. `hub_utils.init` creates a local folder containing the model in the given path, and the configuration file containing the specifications of the environment the model is trained in. The data and the task passed to the `init` will help Hugging Face Hub enable the inference widget on the model page as well as discoverability features to find the model.\n\n```python\nfrom skops import hub_utils\nimport pickle\n\n# let\'s save the model\nmodel_path = "example.pkl"\nlocal_repo = "my-awesome-model"\nwith open(model_path, mode="bw") as f:\n    pickle.dump(model, file=f)\n\n# we will now initialize a local repository\nhub_utils.init(\n    model=model_path, \n    requirements=[f"scikit-learn={sklearn.__version__}"], \n    dst=local_repo,\n    task="tabular-classification",\n    data=X_test,\n)\n```\n\nThe repository now contains the serialized model and the configuration file. \nThe configuration contains the following:\n- features of the model,\n- the requirements of the model,\n- an example input taken from `X_test` that we\'ve passed,\n- name of the model file,\n- name of the task to be solved here.\n\nWe will now create the model card. The card should match the expected Hugging Face Hub format: a markdown part and a metadata section, which is a `yaml` section at the top. The keys to the metadata section are defined [here](https://huggingface.co/docs/hub/models-cards#model-card-metadata) and are used for the discoverability of the models. \nThe content of the model card is determined by a template that has a:\n- `yaml` section on top for metadata (e.g. model license, library name, and more)\n- markdown section with free text and sections to be filled (e.g. simple description of the model),\nThe following sections are extracted by `skops` to fill in the model card:\n- Hyperparameters of the model,\n- Interactive diagram of the model,\n- For metadata, library name, task identifier (e.g. tabular-classification), and information required by the inference widget are filled.\n\nWe will walk you through how to programmatically pass information to fill the model card. You can check out our documentation on the default template provided by `skops`, and its sections [here](https://skops.readthedocs.io/en/latest/model_card.html) to see what the template expects and what it looks like [here](https://github.com/skops-dev/skops/blob/main/skops/card/default_template.md).', '!--⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n--&gt;\n\n# Create and manage a repository\n\nThe Hugging Face Hub is a collection of git repositories. [Git](https://git-scm.com/) is a widely used tool in software\ndevelopment to easily version projects when working collaboratively. This guide will show you how to interact with the\nrepositories on the Hub, especially:\n\n- Create and delete a repository.\n- Manage branches and tags. \n- Rename your repository.\n- Update your repository visibility.\n- Manage a local copy of your repository.\n\n&lt;Tip warning={true}&gt;\n\nIf you are used to working with platforms such as GitLab/GitHub/Bitbucket, your first instinct\nmight be to use `git` CLI to clone your repo (`git clone`), commit changes (`git add, git commit`) and push them\n(`git push`). This is valid when using the Hugging Face Hub. However, software engineering and machine learning do\nnot share the same requirements and workflows. Model repositories might maintain large model weight files for different\nframeworks and tools, so cloning the repository can lead to you maintaining large local folders with massive sizes. As\na result, it may be more efficient to use our custom HTTP methods. You can read our [Git vs HTTP paradigm](../concepts/git_vs_http)\nexplanation page for more details.\n\n&lt;/Tip&gt;\n\nIf you want to create and manage a repository on the Hub, your machine must be logged in. If you are not, please refer to\n[this section](../quick-start#authentication). In the rest of this guide, we will assume that your machine is logged in.\n\n## Repo creation and deletion\n\nThe first step is to know how to create and delete repositories. You can only manage repositories that you own (under\nyour username namespace) or from organizations in which you have write permissions.\n\n### Create a repository\n\nCreate an empty repository with [`create_repo`] and give it a name with the `repo_id` parameter. The `repo_id` is your namespace followed by the repository name: `username_or_org/repo_name`.\n\n```py\n&gt;&gt;&gt; from huggingface_hub import create_repo\n&gt;&gt;&gt; create_repo("lysandre/test-model")\n\'https://huggingface.co/lysandre/test-model\'\n```\n\nBy default, [`create_repo`] creates a model repository. But you can use the `repo_type` parameter to specify another repository type. For example, if you want to create a dataset repository:\n\n```py\n&gt;&gt;&gt; from huggingface_hub import create_repo\n&gt;&gt;&gt; create_repo("lysandre/test-dataset", repo_type="dataset")\n\'https://huggingface.co/datasets/lysandre/test-dataset\'\n```\n\nWhen you create a repository, you can set your repository visibility with the `private` parameter.\n\n```py\n&gt;&gt;&gt; from huggingface_hub import create_repo\n&gt;&gt;&gt; create_repo("lysandre/test-private", private=True)\n```\n\nIf you want to change the repository visibility at a later time, you can use the [`update_repo_visibility`] function.\n\n### Delete a repository\n\nDelete a repository with [`delete_repo`]. Make sure you want to delete a repository because this is an irreversible process!\n\nSpecify the `repo_id` of the repository you want to delete:\n\n```py\n&gt;&gt;&gt; delete_repo(repo_id="lysandre/my-corrupted-dataset", repo_type="dataset")\n```\n\n### Duplicate a repository (only for Spaces)\n\nIn some cases, you want to copy someone else\'s repo to adapt it to your use case.\nThis is possible for Spaces using the [`duplicate_space`] method. It will duplicate the whole repository.\nYou will still need to configure your own settings (hardware, sleep-time, storage, variables and secrets). Check out our [Manage your Space](./manage-spaces) guide for more details.\n\n```py\n&gt;&gt;&gt; from huggingface_hub import duplicate_space\n&gt;&gt;&gt; duplicate_space("multimodalart/dreambooth-training", private=False)\nRepoUrl(\'https://huggingface.co/spaces/nateraw/dreambooth-training\',...)\n```\n\n## Upload and download files']</t>
+          <t>['Add custom Dependencies\n\nInference Endpoints’ base image includes all required libraries to run inference on 🤗 Transformers models, but it also supports custom dependencies. This is useful if you want to:\n\n* [customize your inference pipeline](/docs/inference-endpoints/guides/custom_handler) and need additional Python dependencies\n* run a model which requires special dependencies like the newest or a fixed version of a library (for example, `tapas` (`torch-scatter`)).\n\nTo add custom dependencies, add a `requirements.txt` [file](https://huggingface.co/philschmid/distilbert-onnx-banking77/blob/main/requirements.txt) with the Python dependencies you want to install in your model repository on the Hugging Face Hub. When your Endpoint and Image artifacts are created, Inference Endpoints checks if the model repository contains a `requirements.txt ` file and installs the dependencies listed within.\n\n```bash\noptimum[onnxruntime]==1.2.3\nmkl-include\nmkl\n```\n\nCheck out the `requirements.txt` files in the following model repositories for examples:\n\n* [Optimum and onnxruntime](https://huggingface.co/philschmid/distilbert-onnx-banking77/blob/main/requirements.txt)\n* [diffusers](https://huggingface.co/philschmid/stable-diffusion-v1-4-endpoints/blob/main/requirements.txt)\n\nFor more information, take a look at how you can create and install dependencies when you [use your own custom container](/docs/inference-endpoints/guides/custom_container) for inference.', 'The inference widget is enabled to make predictions in the repository.\n\n![Hosted Inference Widget](assets/94_skops/skops_widget.png)\n\nIf the requirements of your project have changed, you can use `update_env` to update the environment.\n\n```python\nhub_utils.update_env(path=local_repo, requirements=["scikit-learn"])\n```\n\nYou can see the example repository pushed with above code [here](https://huggingface.co/scikit-learn/skops-blog-example).\nWe have prepared two examples to show how to save your models and use model card utilities. You can find them in the resources section below.\n\n\n##\xa0Resources\n- [Model card tutorial](https://skops.readthedocs.io/en/latest/auto_examples/plot_model_card.html)\n- [hub_utils tutorial](https://skops.readthedocs.io/en/latest/auto_examples/plot_hf_hub.html)\n- [skops documentation](https://skops.readthedocs.io/en/latest/modules/classes.html)', 'You can create the model card by instantiating the `Card` class from `skops`. During model serialization, the task name and library name are written to the configuration file. This information is also needed in the card\'s metadata, so you can use the `metadata_from_config` method to extract the metadata from the configuration file and pass it to the card when you create it. You can add information and metadata using `add`.\n\n```python\nfrom skops import card\n\n# create the card \nmodel_card = card.Card(model, metadata=card.metadata_from_config(Path(destination_folder)))\n\nlimitations = "This model is not ready to be used in production."\nmodel_description = "This is a DecisionTreeClassifier model trained on breast cancer dataset."\nmodel_card_authors = "skops_user"\nget_started_code = "import pickle \\nwith open(dtc_pkl_filename, \'rb\') as file: \\n    clf = pickle.load(file)"\ncitation_bibtex = "bibtex\\n@inproceedings{...,year={2020}}"\n\n# we can add the information using add\nmodel_card.add(\n    citation_bibtex=citation_bibtex,\n    get_started_code=get_started_code,\n    model_card_authors=model_card_authors,\n    limitations=limitations,\n    model_description=model_description,\n)\n\n# we can set the metadata part directly\nmodel_card.metadata.license = "mit"\n```\n\nWe will now evaluate the model and add a description of the evaluation method with `add`. The metrics are added by `add_metrics`, which will be parsed into a table. \n\n```python\nfrom sklearn.metrics import (ConfusionMatrixDisplay, confusion_matrix,\n                            accuracy_score, f1_score)\n# let\'s make a prediction and evaluate the model\ny_pred = model.predict(X_test)\n# we can pass metrics using add_metrics and pass details with add\nmodel_card.add(eval_method="The model is evaluated using test split, on accuracy and F1 score with macro average.")\nmodel_card.add_metrics(accuracy=accuracy_score(y_test, y_pred))\nmodel_card.add_metrics(**{"f1 score": f1_score(y_test, y_pred, average="micro")})\n```\n\nWe can also add any plot of our choice to the card using `add_plot` like below.\n\n```python\nimport matplotlib.pyplot as plt\nfrom pathlib import Path\n# we will create a confusion matrix\ncm = confusion_matrix(y_test, y_pred, labels=model.classes_)\ndisp = ConfusionMatrixDisplay(confusion_matrix=cm, display_labels=model.classes_)\ndisp.plot()\n\n# save the plot\nplt.savefig(Path(local_repo) / "confusion_matrix.png")\n\n# the plot will be written to the model card under the name confusion_matrix\n#\xa0we pass the path of the plot itself\nmodel_card.add_plot(confusion_matrix="confusion_matrix.png")\n```\n\nLet\'s save the model card in the local repository. The file name here should be `README.md` since it is what Hugging Face Hub expects.\n```python\nmodel_card.save(Path(local_repo) / "README.md")\n```\n\nWe can now push the repository to the Hugging Face Hub. For this, we will use `push` from `hub_utils`. Hugging Face Hub requires tokens for authentication, therefore you need to pass your token in either  `notebook_login` if you\'re logging in from a notebook, or `huggingface-cli login` if you\'re logging in from the CLI.\n\n```python\n# if the repository doesn\'t exist remotely on the Hugging Face Hub, it will be created when we set create_remote to True\nrepo_id = "skops-user/my-awesome-model"\nhub_utils.push(\n    repo_id=repo_id,\n    source=local_repo,\n    token=token,\n    commit_message="pushing files to the repo from the example!",\n    create_remote=True,\n)\n```\n\nOnce we push the model to the Hub, anyone can use it unless the repository is private. You can download the models using `download`. Apart from the model file, the repository contains the model configuration and the environment requirements.\n\n```python\ndownload_repo = "downloaded-model"\nhub_utils.download(repo_id=repo_id, dst=download_repo)\n```\n\nThe inference widget is enabled to make predictions in the repository.\n\n![Hosted Inference Widget](assets/94_skops/skops_widget.png)', 'Access and read Logs\n\nHugging Face Endpoints provides access to the logs of your Endpoints through the UI in the “Logs” tab of your Endpoint. \n\nYou will have access to the build logs of your Image artifacts as well as access to the Container Logs during inference.\n\n&lt;img src="https://raw.githubusercontent.com/huggingface/hf-endpoints-documentation/main/assets/9_selection.png" alt="select logs" /&gt;\n\nThe Container Logs are only available when your Endpoint is in the “Running” state. \n\n_Note: If your Endpoint creation is in the “Failed” state, you can check the Build Logs to see what the reason was, e.g. wrong version of a dependency, etc._\n\n**Build Logs:**\n\n&lt;img src="https://raw.githubusercontent.com/huggingface/hf-endpoints-documentation/main/assets/9_build_logs.png" alt="build logs" /&gt;\n\n**Container Logs:**\n\n&lt;img src="https://raw.githubusercontent.com/huggingface/hf-endpoints-documentation/main/assets/9_logs.png" alt="container logs" /&gt;', '--\ntitle: "Introducing Skops"\nthumbnail: /blog/assets/94_skops/introducing_skops.png\nauthors:\n- user: merve\n- user: adrin\n- user: BenjaminB\n---\n\n# Introducing Skops\n\n\n##\xa0Introducing Skops\n\nAt Hugging Face, we are working on tackling various problems in open-source machine learning, including, hosting models securely and openly, enabling reproducibility, explainability and collaboration. We are thrilled to introduce you to our new library: Skops! With Skops, you can host your scikit-learn models on the Hugging Face Hub, create model cards for model documentation and collaborate with others.\n\nLet\'s go through an end-to-end example: train a model first, and see step-by-step how to leverage Skops for sklearn in production.\n\n```python\n# let\'s import the libraries first\nimport sklearn\nfrom sklearn.datasets import load_breast_cancer\nfrom sklearn.tree import DecisionTreeClassifier\nfrom sklearn.model_selection import train_test_split\n\n# Load the data and split\nX, y = load_breast_cancer(as_frame=True, return_X_y=True)\nX_train, X_test, y_train, y_test = train_test_split(\n    X, y, test_size=0.3, random_state=42\n)\n\n# Train the model\nmodel = DecisionTreeClassifier().fit(X_train, y_train)\n```\n\nYou can use any model filename and serialization method, like `pickle` or `joblib`. At the moment, our backend uses `joblib` to load the model. `hub_utils.init` creates a local folder containing the model in the given path, and the configuration file containing the specifications of the environment the model is trained in. The data and the task passed to the `init` will help Hugging Face Hub enable the inference widget on the model page as well as discoverability features to find the model.\n\n```python\nfrom skops import hub_utils\nimport pickle\n\n# let\'s save the model\nmodel_path = "example.pkl"\nlocal_repo = "my-awesome-model"\nwith open(model_path, mode="bw") as f:\n    pickle.dump(model, file=f)\n\n# we will now initialize a local repository\nhub_utils.init(\n    model=model_path, \n    requirements=[f"scikit-learn={sklearn.__version__}"], \n    dst=local_repo,\n    task="tabular-classification",\n    data=X_test,\n)\n```\n\nThe repository now contains the serialized model and the configuration file. \nThe configuration contains the following:\n- features of the model,\n- the requirements of the model,\n- an example input taken from `X_test` that we\'ve passed,\n- name of the model file,\n- name of the task to be solved here.\n\nWe will now create the model card. The card should match the expected Hugging Face Hub format: a markdown part and a metadata section, which is a `yaml` section at the top. The keys to the metadata section are defined [here](https://huggingface.co/docs/hub/models-cards#model-card-metadata) and are used for the discoverability of the models. \nThe content of the model card is determined by a template that has a:\n- `yaml` section on top for metadata (e.g. model license, library name, and more)\n- markdown section with free text and sections to be filled (e.g. simple description of the model),\nThe following sections are extracted by `skops` to fill in the model card:\n- Hyperparameters of the model,\n- Interactive diagram of the model,\n- For metadata, library name, task identifier (e.g. tabular-classification), and information required by the inference widget are filled.\n\nWe will walk you through how to programmatically pass information to fill the model card. You can check out our documentation on the default template provided by `skops`, and its sections [here](https://skops.readthedocs.io/en/latest/model_card.html) to see what the template expects and what it looks like [here](https://github.com/skops-dev/skops/blob/main/skops/card/default_template.md).']</t>
         </is>
       </c>
     </row>
@@ -1195,15 +1172,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Based on the context provided, to install the latest version of Optimum with OpenVINO support, you should use the following command:
-```bash
+          <t>Based on the context provided, the command to install the latest version of Optimum with OpenVINO support is:
+```
 pip install --upgrade-strategy eager optimum["openvino"]
 ```
-The key points are:
-1. Use pip to install
-2. Include the `--upgrade-strategy eager` option to ensure the latest version is installed
-3. Install the `optimum` package with the `openvino` extra in square brackets
-This will install Optimum with OpenVINO support and ensure you have the most up-to-date version.</t>
+The key details are:
+- Use pip to install
+- Include the `--upgrade-strategy eager` option to ensure it uses the latest version
+- Install `optimum["openvino"]` to get Optimum with OpenVINO support
+This command will install the latest version of Optimum Intel with OpenVINO capabilities.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1244,7 +1221,7 @@
 ```bash
 python -m spacy huggingface-hub push en_ner_fashion-0.0.0-py3-none-any.whl
 ```
-This command uses the `spacy-huggingface-hub` library to push a packaged spaCy pipeline (in .whl format) to the Hugging Face Hub. The command should be run after packaging the spaCy pipeline and navigating to the directory containing the .whl file.</t>
+This command uses the `spacy-huggingface-hub` library to extend spaCy's CLI with a new `huggingface-hub push` command. It allows you to easily upload your packaged spaCy pipeline to the Hugging Face Hub with a single command.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1281,11 +1258,12 @@
 ```bash
 ./run.sh --stage 15 --skip_upload_hf false --hf_repo username/model_repo
 ```
-This command uses the `run.sh` script with the following key options:
-- `--stage 15`: Specifies the stage for uploading to Hugging Face
-- `--skip_upload_hf false`: Enables uploading to Hugging Face (does not skip it)
-- `--hf_repo username/model_repo`: Specifies the Hugging Face repository to upload to, in the format username/model_repo
-This allows uploading a given ESPnet model to the specified Hugging Face repository.</t>
+Specifically:
+- The `run.sh` script is used to upload the model
+- The `--stage 15` flag indicates the upload stage
+- `--skip_upload_hf false` enables uploading to Hugging Face
+- `--hf_repo username/model_repo` specifies the Hugging Face repository to upload to, where you would replace "username" with your Hugging Face username and "model_repo" with your desired repository name.
+This command allows uploading an ESPnet model directly to a specified Hugging Face repository.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1354,7 +1332,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Based on the context provided, the default context window size for Local Attention in the LongT5 model is 127 tokens to the left and right. Specifically, the context states:
+          <t>Based on the context provided, the default context window size for Local Attention in the LongT5 model is 127 tokens to the left and right. Specifically, the passage states:
 "For *Local Attention*, the sparse sliding-window local attention operation allows a given token to attend only `r` tokens to the left and right of it (with `r=127` by default)."
 So the default local attention window size is 127 tokens on each side of a given token.</t>
         </is>
@@ -1392,7 +1370,7 @@
           <t>Based on the context provided, the default repository type created by the `create_repo` function on Hugging Face Hub is a model repository.
 Specifically, the documentation states:
 "By default, [`create_repo`] creates a model repository. But you can use the `repo_type` parameter to specify another repository type."
-So unless otherwise specified, `create_repo` will create a model repository by default.</t>
+So unless otherwise specified, calling `create_repo()` will create a model repository by default.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1462,7 +1440,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>According to the context provided, for the base BERT model, the dimension of the feature vector (also called the hidden size) is 768. Specifically, the passage states:
+          <t>According to the context provided, for the base BERT model, the dimension of the feature vector (or hidden state vector) is 768. Specifically, the passage states:
 "The dimension of that vector is defined by the architecture of the model, for the base BERT model, it is 768."</t>
         </is>
       </c>
@@ -1498,7 +1476,7 @@
         <is>
           <t>According to the context provided, the file size limit for syncing to Hugging Face Spaces without using Git-LFS is 10MB. Specifically, the context states:
 "Remember that for files larger than 10MB, Spaces requires Git-LFS. If you don't want to use Git-LFS, you may need to review your files and check your history."
-It also provides an example GitHub Action to check file sizes, with the comment:
+It also provides an example GitHub Action that checks file sizes, with the comment:
 "filesizelimit: 10485760 # this is 10MB so we can sync to HF Spaces"
 So the file size limit for syncing to HF Spaces without Git-LFS is 10MB.</t>
         </is>
@@ -1533,13 +1511,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Based on the context provided, the goal of the Named Entity Recognition (NER) task in token classification is to find and label entities in a piece of text, such as:
-- Person
-- Location 
-- Organization
+          <t>Based on the context provided, the goal of Named Entity Recognition (NER) in token classification is to find and label entities in a piece of text, such as:
+- Person names
+- Locations 
+- Organizations
 Specifically, the video transcript states:
 "The goal of this task is to find the entities in a piece of text, such as person, location, or organization. This task is formulated as labelling each token with one class for each entity, and another class for tokens that have no entity."
-So NER aims to identify and categorize key entities mentioned in text by labeling each relevant token with the appropriate entity type. Tokens that are not part of any named entity are given a separate label to indicate they don't belong to an entity.</t>
+So NER aims to identify and categorize key entities mentioned in text by labeling each relevant token with the appropriate entity class (e.g. person, location, organization) or labeling it as not being part of an entity.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1606,10 +1584,9 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, the maximum improvement in throughput achieved by Hugging Face Infinity compared to vanilla transformers is 800%.
-Specifically, the context states:
+          <t>Based on the information provided in the context, Hugging Face Infinity achieved up to 800% higher throughput compared to vanilla transformers. Specifically, the context states:
 "Hugging Face Infinity can deliver up to 800% higher throughput compared to vanilla transformers, and down to 1-4ms latency for sequence lengths up to 64 tokens."
-The throughput comparison table also shows improvements ranging from 300% to 506% for different sequence lengths, with the highest being 506% for a sequence length of 8 tokens.</t>
+The throughput table also shows improvements ranging from 300% to 506% for different sequence lengths, with the maximum being a 506% improvement for sequence length 8.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1642,7 +1619,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Based on the context provided, in Transformers version 4.18.0 and later, model checkpoints that are larger than 10GB are automatically sharded into smaller pieces. Specifically, the context states:
+          <t>According to the context provided, in Transformers version 4.18.0 and later, model checkpoints that are larger than 10GB are automatically sharded into smaller pieces. Specifically:
 "Since version 4.18.0, model checkpoints that end up taking more than 10GB of space are automatically sharded in smaller pieces."
 So the maximum size of a model checkpoint before automatic sharding occurs is 10GB.</t>
         </is>
@@ -1677,7 +1654,8 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Based on the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is google/vit-base-patch16-224. 
+          <t>According to the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is:
+google/vit-base-patch16-224
 Specifically, the context states:
 "At the time of writing, the most popular one is `google/vit-base-patch16-224`, which has been trained on ImageNet images at a resolution of 224x224 pixels. We will use this model for our demo."</t>
         </is>
@@ -1712,10 +1690,8 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>According to the context, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS.
-Specifically, the passage states:
-"In this guide, we will illustrate how you can solve image-text tasks with a large multimodal model called IDEFICS.
-IDEFICS is an open-access vision and language model based on Flamingo, a state-of-the-art visual language model initially developed by DeepMind."</t>
+          <t>According to the context, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS. Specifically, the passage states:
+"IDEFICS is an open-access vision and language model based on Flamingo, a state-of-the-art visual language model initially developed by DeepMind. The model accepts arbitrary sequences of image and text inputs and generates coherent text as output."</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1748,8 +1724,8 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>According to the context, the new library introduced by Hugging Face for hosting scikit-learn models is called Skops.
-Specifically, the introduction states:
+          <t>The new library introduced by Hugging Face for hosting scikit-learn models is called Skops.
+The context states:
 "We are thrilled to introduce you to our new library: Skops! With Skops, you can host your scikit-learn models on the Hugging Face Hub, create model cards for model documentation and collaborate with others."</t>
         </is>
       </c>
@@ -1783,8 +1759,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The open-source library created by Hugging Face to simplify Transformer acceleration is called Optimum.
-Specifically, the context mentions:
+          <t>According to the context, the open-source library created by Hugging Face to simplify Transformer acceleration is called Optimum. Specifically, the passage states:
 "Optimum is an open-source library created by Hugging Face to simplify Transformer acceleration across a growing range of training and inference devices."</t>
         </is>
       </c>
@@ -1819,13 +1794,10 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>Based on the context provided, the pretraining objective of the Wav2Vec2 context network is a contrastive task. Specifically:
-The context network is given masked feature vectors as input. Its objective is to predict the true quantized speech representation of the masked prediction from a set of false ones. This encourages the model to find the most similar context vector and quantized speech unit (the target label).
-The key points are:
-1. It is a contrastive task - the model has to distinguish the true representation from false ones.
-2. The input is masked feature vectors.
-3. The goal is to predict the correct quantized speech representation for the masked input.
-4. This pushes the model to find similarities between the context and the target quantized speech unit.
-So in summary, it's a self-supervised contrastive learning objective that helps the model learn useful speech representations by matching masked inputs to their correct quantized versions.</t>
+1. The context network is a Transformer encoder that processes masked feature vectors.
+2. For the pretraining objective, the model has to predict the true quantized speech representation of the masked prediction from a set of false ones. 
+3. This encourages the model to find the most similar context vector and quantized speech unit (the target label).
+So in summary, the contrastive pretraining task involves distinguishing the correct quantized speech representation from incorrect alternatives for the masked inputs, pushing the model to learn meaningful speech representations.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1863,11 +1835,11 @@
 2. To serve as a modular toolbox for both inference and training of diffusion models.
 3. To be a natural extension of PyTorch, following many of PyTorch's design principles.
 4. To prioritize usability and simplicity over performance and complex abstractions.
-5. To be lightweight with few required dependencies, while offering optional performance-enhancing features.
-6. To provide explicit and customizable components (models, schedulers, pipelines) that users can easily tweak and adapt.
-7. To be contributor-friendly by using a "single-file policy" for many components, making the code more accessible and easier to modify.
-8. To offer easy-to-use pipelines for inference while also exposing lower-level components for more advanced users and researchers.
-In essence, Diffusers aims to be a flexible, user-friendly, and modular library for working with diffusion models, catering to both beginners and advanced practitioners in the field of generative AI.</t>
+5. To be lightweight with few required dependencies, while offering optional performance enhancements.
+6. To provide explicit and simple code that allows for easy debugging, customization and contribution.
+7. To separate components like models, schedulers and pipelines to allow flexible usage and tweaking.
+8. To enable rapid generation through easy-to-use pipelines, while also allowing lower-level access to individual components.
+In summary, Diffusers aims to be a flexible, modular and user-friendly library for working with diffusion models, balancing ease-of-use with the ability to customize and extend its functionality.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1901,14 +1873,14 @@
       <c r="C39" t="inlineStr">
         <is>
           <t>Fully Sharded Data Parallel (FSDP) is a distributed training technique developed for training very large models, with the following key purposes:
-1. Memory efficiency: FSDP shards (splits) model parameters, gradients, and optimizer states across data parallel processes. This allows training models that are too large to fit on a single GPU.
-2. Scaling to larger models: By distributing the model across multiple GPUs/nodes, FSDP enables training of models with billions or even trillions of parameters.
-3. CPU offloading: FSDP can offload sharded model parameters to CPU memory, further increasing the model size that can be trained.
-4. Improved performance: By sharding the model, FSDP can reduce communication overhead compared to standard data parallel training for very large models.
-5. Flexibility: FSDP allows configuring different sharding strategies and CPU offloading options to optimize for specific hardware setups.
-6. Ease of use: FSDP aims to be relatively easy to integrate into existing PyTorch training code, compared to more complex model parallelism techniques.
-7. Compatibility: FSDP can be combined with other techniques like mixed precision training for further optimization.
-The key idea is that FSDP enables distributed training of extremely large models that would not be possible with standard data parallelism alone, by sharding the model itself across multiple devices. This allows researchers and practitioners to scale up to larger and more powerful models.</t>
+1. Enable training of larger models: By sharding model parameters, gradients, and optimizer states across multiple GPUs/devices, FSDP allows training models that are too large to fit on a single GPU.
+2. Improve memory efficiency: FSDP reduces the memory footprint on each device by only storing a portion of the model parameters, gradients, and optimizer states.
+3. Scale to more devices: The sharding approach allows FSDP to scale efficiently to a large number of GPUs/devices.
+4. Maintain performance: FSDP aims to provide similar training throughput and convergence as data parallel training while enabling larger models.
+5. CPU offloading: FSDP can offload sharded model parameters to CPU memory to further increase the model size that can be trained.
+6. Flexibility: It allows configuring the sharding strategy and other options to balance between memory savings and communication overhead.
+7. Ease of use: FSDP can often be used with minimal changes to existing PyTorch training code.
+In summary, FSDP is designed to push the limits on model size for distributed training, allowing researchers and practitioners to train increasingly large models that wouldn't be possible with standard data parallelism approaches. It achieves this through clever sharding and memory management techniques.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1945,8 +1917,8 @@
 1. To personalize text-to-image models like Stable Diffusion by teaching them new concepts using just a few example images (3-5 images).
 2. To learn new text embeddings from a small set of example images, which can then be loaded into the text encoder of the model.
 3. To produce a very small file (a few KBs) containing the new learned embeddings that can be easily shared and loaded.
-4. To allow users to customize and personalize text-to-image models on their own images or concepts without having to retrain the entire model.
-The key benefits are that it enables personalization with very few example images and produces compact embeddings that can be easily integrated into existing text-to-image pipelines.</t>
+4. To allow users to customize and personalize existing text-to-image models on their own images or concepts without having to retrain the entire model.
+The key benefit is that it enables personalizing large text-to-image models using only a handful of images, resulting in a small, shareable embedding file that can be used to activate the new concept in the model.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1979,12 +1951,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>According to the context provided, Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to:
+          <t>Based on the context provided, Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to:
 1. Track their machine learning experiments at every stage, from training to production.
 2. Aggregate any metric over samples and show them in panels in a customizable and searchable dashboard.
 Specifically, the context states:
-"Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to track their machine learning experiments at every stage, from training to production. Any metric can be aggregated over samples and shown in panels in a customizable and searchable dashboard, like below:"
-So the key purposes are experiment tracking, metric aggregation, and visualization of results in a customizable dashboard throughout the machine learning workflow.</t>
+"Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to track their machine learning experiments at every stage, from training to production. Any metric can be aggregated over samples and shown in panels in a customizable and searchable dashboard"
+So the key purposes are experiment tracking, metric aggregation, and visualization of results in a customizable dashboard to help data scientists and ML researchers monitor and analyze their machine learning workflows.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2017,11 +1989,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Based on the context provided, the purpose of the /healthcheck endpoint in the Datasets server API is to:
+          <t>Based on the context provided, the /healthcheck endpoint in the Datasets server API is used to:
 Ensure the app is running
 Specifically, the context states:
-"- /healthcheck: Ensure the app is running"
-This suggests that the /healthcheck endpoint is used to check if the Datasets server API application is operational and responding.</t>
+"/healthcheck: Ensure the app is running"
+So the purpose of this endpoint is to check if the Datasets server API application is operational and functioning properly.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2054,17 +2026,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main purposes of BLIP-Diffusion are:
-1. To enable zero-shot subject-driven generation and control-guided zero-shot generation for text-to-image tasks.
-2. To overcome limitations of existing subject-driven text-to-image models, specifically:
-   - Lengthy fine-tuning requirements
-   - Difficulties preserving subject fidelity
-3. To introduce a new multimodal encoder that is pre-trained to provide subject representation. This allows:
-   - Zero-shot subject-driven generation
-   - Efficient fine-tuning for customized subjects (up to 20x speedup compared to previous methods)
-4. To flexibly combine with existing techniques like ControlNet and prompt-to-prompt to enable novel subject-driven generation and editing applications.
-5. To provide a new approach for subject-driven image generation that consumes both subject images and text prompts as inputs.
-In summary, BLIP-Diffusion aims to improve subject-driven text-to-image generation by enabling zero-shot capabilities, faster fine-tuning, better subject fidelity, and flexible integration with other control techniques.</t>
+          <t>Based on the context provided, the key points about BLIP-Diffusion are:
+1. It enables zero-shot subject-driven generation and control-guided zero-shot generation for text-to-image tasks.
+2. It introduces a new multimodal encoder that is pre-trained to provide subject representation. This allows it to overcome limitations of existing models like lengthy fine-tuning and difficulties preserving subject fidelity.
+3. Compared to previous methods like DreamBooth, BLIP-Diffusion enables:
+   - Zero-shot subject-driven generation 
+   - Efficient fine-tuning for customized subjects with up to 20x speedup
+4. It can be flexibly combined with existing techniques like ControlNet and prompt-to-prompt to enable novel subject-driven generation and editing applications.
+5. The model aims to create novel renditions of an input subject based on text prompts, while better preserving subject fidelity compared to existing approaches.
+In summary, the main purpose of BLIP-Diffusion is to enable more efficient and effective subject-driven text-to-image generation and editing, with improved subject fidelity and without requiring lengthy fine-tuning.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2099,7 +2069,8 @@
         <is>
           <t>Based on the context provided, the Safety Checker in the Diffusers library serves the following purpose:
 It checks and compares the class probability of a set of hard-coded harmful concepts in the embedding space against an image after it has been generated. The harmful concepts are intentionally hidden to prevent reverse engineering of the checker.
-Specifically, the Safety Checker aims to detect potentially harmful or inappropriate content in generated images as a safety measure. It does this by analyzing the generated image and comparing it against predefined harmful concepts, without explicitly revealing what those concepts are (to avoid circumvention). This helps mitigate the risk of the model producing inappropriate or unsafe content.</t>
+Specifically, the Safety Checker aims to detect potentially harmful or inappropriate content in generated images as a safety measure. It does this by analyzing the generated image and comparing it against predefined harmful concepts, without exposing the details of those concepts to prevent circumvention of the safety check.
+This is part of Diffusers' efforts to encourage safety in the deployment and use of diffusion models, helping to mitigate potential misuse or generation of inappropriate content.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2132,17 +2103,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Based on the context provided, the purpose of the `gradio.Blocks` API is to provide a low-level interface that allows developers to have full control over the data flows and layout of their Gradio applications. Specifically:
-1. It allows more flexibility compared to the simpler `Interface` API.
-2. It enables developers to:
-   - Group related demos as multiple tabs in one web application
-   - Customize the layout of the demo, including specifying where inputs and outputs are located
-   - Create multi-step interfaces where the output of one model becomes the input to another
-   - Have more flexible data flows in general
-   - Change component properties or visibility dynamically based on user input
-3. It gives developers granular control over events and triggers for different components.
-4. It allows creating more complex, multi-step applications compared to what's possible with just the `Interface` API.
-In essence, `Blocks` provides the building blocks for creating sophisticated and customized machine learning demos and applications with Gradio, offering much more control and flexibility than the higher-level `Interface` API.</t>
+          <t>Based on the context provided, the purpose of the gradio.Blocks API is to:
+1. Provide a low-level API that allows full control over the data flows and layout of Gradio applications.
+2. Enable building more complex, multi-step applications compared to the simpler gradio.Interface API.
+3. Allow developers to:
+- Group related demos as multiple tabs in one web application
+- Customize the layout of demos, specifying where inputs and outputs are located  
+- Create multi-step interfaces where the output of one model becomes the input to another
+- Change component properties or visibility dynamically based on user input
+4. Give more flexibility in designing Gradio demos compared to the higher-level Interface API, while still being relatively easy to use.
+In summary, Blocks is a more powerful and flexible API for creating custom Gradio applications with complex layouts and data flows, going beyond what's possible with the simpler Interface API.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2179,9 +2149,9 @@
 Show how to use DeepSpeed to pre-train/fine-tune the 1.6B-parameter GPT2-XL model for causal language modeling on Habana Gaudi hardware.
 Specifically, it demonstrates:
 1. Using DeepSpeed, which is a deep learning optimization library
-2. Training very large language models with billions of parameters (GPT2-XL with 1.6B parameters in this case)
+2. Training very large language models with billions of parameters (in this case the 1.6B parameter GPT2-XL model)
 3. Utilizing Habana Gaudi accelerators, which are specialized AI hardware
-The notebook aims to provide a practical guide for training large-scale language models efficiently using DeepSpeed optimization techniques on Habana Gaudi hardware.</t>
+The notebook aims to provide a practical guide for training large language models efficiently using DeepSpeed optimization techniques on Habana Gaudi hardware.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2216,13 +2186,15 @@
         <is>
           <t>Based on the context provided, the purpose of the two-stage model proposed in the paper "Hierarchical Text-Conditional Image Generation with CLIP Latents" is:
 1. To leverage CLIP representations for image generation.
-2. The model consists of two stages:
+2. The two stages are:
    - A prior that generates a CLIP image embedding given a text caption
    - A decoder that generates an image conditioned on the image embedding
-3. By explicitly generating image representations, this approach aims to improve image diversity while maintaining photorealism and caption similarity.
-4. The decoder can produce variations of an image that preserve its semantics and style, while varying non-essential details not captured in the image representation.
-5. It enables language-guided image manipulations in a zero-shot manner, leveraging the joint embedding space of CLIP.
-In summary, the two-stage model allows for more controlled and diverse image generation by first generating CLIP image embeddings and then decoding those into images, taking advantage of CLIP's robust representations that capture both semantics and style.</t>
+3. The goal is to improve image diversity while maintaining photorealism and caption similarity.
+4. By explicitly generating image representations first, it allows for:
+   - Producing variations of an image that preserve semantics and style while varying non-essential details
+   - Enabling language-guided image manipulations in a zero-shot manner
+5. The model uses diffusion models for the decoder, and experiments with both autoregressive and diffusion models for the prior.
+In summary, the two-stage approach aims to leverage CLIP's robust representations to generate diverse, high-quality images that match text captions, while enabling additional capabilities like image variation and zero-shot manipulation.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2257,14 +2229,12 @@
         <is>
           <t>Based on the context provided, the purpose of the 🧨 Diffusers tutorials is to:
 1. Provide a gentle introduction to diffusion models and generative AI for beginners.
-2. Help users understand the fundamentals of the Diffusers library, including its core components and how it is meant to be used.
-3. Teach users how to:
-   - Use a pipeline for inference to generate content quickly
-   - Deconstruct that pipeline to understand how to use the library as a modular toolbox
-   - Build their own diffusion systems
-4. Prepare users to start exploring the library on their own and apply it to their own projects and applications.
-5. Give users the necessary skills to move on to more advanced topics, like training their own diffusion models.
-The tutorials are designed to be beginner-friendly and provide a step-by-step approach to learning about diffusion models and the Diffusers library.</t>
+2. Help users understand the fundamentals of the Diffusers library, including its core components and how it's meant to be used.
+3. Teach users how to use a pipeline for inference to quickly generate outputs.
+4. Show how to deconstruct a pipeline to understand how to use the library as a modular toolbox for building custom diffusion systems.
+5. Prepare users to learn how to train their own diffusion models in subsequent lessons.
+6. Give users the necessary skills to start exploring the library on their own and apply it to their own projects and applications.
+The tutorials are designed to be beginner-friendly and provide a foundation for users to get started with the Diffusers library and diffusion models in general.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2297,13 +2267,13 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main purpose of tokenizers in the NLP pipeline is to translate text into data that can be processed by the model. Specifically:
-1. Tokenizers convert raw text inputs into numerical data that models can process, since models can only work with numbers, not raw text.
-2. They aim to find the most meaningful and smallest representation of the text that makes sense to the model.
-3. Tokenizers serve as a core component that bridges the gap between human-readable text and the numerical inputs required by NLP models.
-4. They break down text into tokens (which could be words, subwords, or characters) and assign numerical IDs to those tokens.
-5. This tokenization process allows the model to work with a fixed vocabulary and convert text into sequences of numbers that it can process.
-In essence, tokenizers play a crucial role in preparing textual data for input into NLP models by converting human language into a format that machines can understand and process efficiently.</t>
+          <t>Based on the context provided, the purpose of tokenizers in the NLP pipeline is:
+1. To translate text into data that can be processed by the model. 
+2. To convert raw text inputs into numerical data that models can understand and process, since models can only work with numbers.
+3. To find the most meaningful and smallest possible representation of the text for the model.
+The context states: "Tokenizers are one of the core components of the NLP pipeline. They serve one purpose: to translate text into data that can be processed by the model. Models can only process numbers, so tokenizers need to convert our text inputs to numerical data."
+It also mentions that tokenizers aim to "find the most meaningful representation — that is, the one that makes the most sense to the model — and, if possible, the smallest representation."
+So in essence, tokenizers bridge the gap between human-readable text and the numerical data that machine learning models require for natural language processing tasks.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2372,7 +2342,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>According to the context, CLIPSeg uses images of 352 x 352 pixels resolution. Specifically, the passage states:
+          <t>According to the context, CLIPSeg uses images with a resolution of 352 x 352 pixels. Specifically, the passage states:
 "Currently, CLIPSeg still has its limitations. For example, the model uses images of 352 x 352 pixels, so the output is quite low-resolution."
 So the resolution of images used by CLIPSeg is 352 x 352 pixels.</t>
         </is>
@@ -2407,14 +2377,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Based on the context provided, the Nyströmformer approximates self-attention with linear time and memory complexity:
-- The standard self-attention mechanism has time and memory complexity of O(n^2), where n is the length of the input sequence.
-- The Nyströmformer offers an efficient approximation to standard self-attention with O(n) complexity.
-Specifically:
-- It avoids calculating the full QK^T product, which would have O(n^2) complexity. 
-- Instead, it uses landmark points (typically 32 or 64) to construct smaller matrices that approximate the full attention.
-- This allows it to achieve linear O(n) time and memory complexity, even for long sequences (e.g. n=4096 or 8192).
-So in summary, the Nyströmformer reduces the quadratic O(n^2) complexity of standard self-attention to linear O(n) complexity, allowing it to scale more efficiently to longer sequences.</t>
+          <t>Based on the context provided, the Nyströmformer approximates self-attention with linear O(n) time and memory complexity, where n is the length of the input sequence. Specifically:
+1. The context states that Nyströmformer "approximates standard self-attention with O(n) complexity".
+2. It mentions that Nyströmformer offers "an efficient approximation to the standard self-attention mechanism", which has O(n^2) complexity.
+3. The approximation avoids calculating the full QK^T product, which would have O(n^2) complexity. Instead, it uses landmark points and segment means to construct approximation matrices.
+4. The context notes that even for long sequence lengths of n=4096 or 8192, using just 32 or 64 landmarks produces competitive performance compared to standard self-attention.
+So in summary, by using the Nyström method approximation with a small number of landmarks, Nyströmformer reduces the quadratic O(n^2) complexity of standard self-attention to linear O(n) complexity in both time and memory.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2447,7 +2415,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>According to the context, the paper introducing the ByT5 model is titled:
+          <t>Based on the context provided, the title of the paper introducing the ByT5 model is:
 "ByT5: Towards a token-free future with pre-trained byte-to-byte models"</t>
         </is>
       </c>
@@ -2481,7 +2449,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>According to the context, MarkupLMFeatureExtractor uses Beautiful Soup to extract data from HTML and XML files. Specifically, the passage states:
+          <t>According to the context, MarkupLMFeatureExtractor uses Beautiful Soup to extract data from HTML and XML files. Specifically, the documentation states:
 "[`MarkupLMFeatureExtractor`] uses [Beautiful Soup](https://www.crummy.com/software/BeautifulSoup/bs4/doc/), a Python library for pulling data out of HTML and XML files, under the hood."</t>
         </is>
       </c>
@@ -2492,12 +2460,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/transformers/blob/main/docs/source/en/model_doc/rag.md']</t>
+          <t>['huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/transformers/blob/main/docs/source/en/model_doc/markuplm.md', 'huggingface/blog/blob/main/nystromformer.md']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['&lt;small&gt; MarkupLM architecture. Taken from the &lt;a href="https://arxiv.org/abs/2110.08518"&gt;original paper.&lt;/a&gt; &lt;/small&gt;\n\n## Usage: MarkupLMProcessor\n\nThe easiest way to prepare data for the model is to use [`MarkupLMProcessor`], which internally combines a feature extractor\n([`MarkupLMFeatureExtractor`]) and a tokenizer ([`MarkupLMTokenizer`] or [`MarkupLMTokenizerFast`]). The feature extractor is\nused to extract all nodes and xpaths from the HTML strings, which are then provided to the tokenizer, which turns them into the\ntoken-level inputs of the model (`input_ids` etc.). Note that you can still use the feature extractor and tokenizer separately,\nif you only want to handle one of the two tasks.\n\n```python\nfrom transformers import MarkupLMFeatureExtractor, MarkupLMTokenizerFast, MarkupLMProcessor\n\nfeature_extractor = MarkupLMFeatureExtractor()\ntokenizer = MarkupLMTokenizerFast.from_pretrained("microsoft/markuplm-base")\nprocessor = MarkupLMProcessor(feature_extractor, tokenizer)\n```\n\nIn short, one can provide HTML strings (and possibly additional data) to [`MarkupLMProcessor`],\nand it will create the inputs expected by the model. Internally, the processor first uses\n[`MarkupLMFeatureExtractor`] to get a list of nodes and corresponding xpaths. The nodes and\nxpaths are then provided to [`MarkupLMTokenizer`] or [`MarkupLMTokenizerFast`], which converts them\nto token-level `input_ids`, `attention_mask`, `token_type_ids`, `xpath_subs_seq`, `xpath_tags_seq`.\nOptionally, one can provide node labels to the processor, which are turned into token-level `labels`.\n\n[`MarkupLMFeatureExtractor`] uses [Beautiful Soup](https://www.crummy.com/software/BeautifulSoup/bs4/doc/), a Python library for\npulling data out of HTML and XML files, under the hood. Note that you can still use your own parsing solution of\nchoice, and provide the nodes and xpaths yourself to [`MarkupLMTokenizer`] or [`MarkupLMTokenizerFast`].\n\nIn total, there are 5 use cases that are supported by the processor. Below, we list them all. Note that each of these\nuse cases work for both batched and non-batched inputs (we illustrate them for non-batched inputs).\n\n**Use case 1: web page classification (training, inference) + token classification (inference), parse_html = True**\n\nThis is the simplest case, in which the processor will use the feature extractor to get all nodes and xpaths from the HTML.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n\n&gt;&gt;&gt; html_string = """\n...  &lt;!DOCTYPE html&gt;\n...  &lt;html&gt;\n...  &lt;head&gt;\n...  &lt;title&gt;Hello world&lt;/title&gt;\n...  &lt;/head&gt;\n...  &lt;body&gt;\n...  &lt;h1&gt;Welcome&lt;/h1&gt;\n...  &lt;p&gt;Here is my website.&lt;/p&gt;\n...  &lt;/body&gt;\n...  &lt;/html&gt;"""\n\n&gt;&gt;&gt; # note that you can also add provide all tokenizer parameters here such as padding, truncation\n&gt;&gt;&gt; encoding = processor(html_string, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n**Use case 2: web page classification (training, inference) + token classification (inference), parse_html=False**\n\nIn case one already has obtained all nodes and xpaths, one doesn\'t need the feature extractor. In that case, one should\nprovide the nodes and corresponding xpaths themselves to the processor, and make sure to set `parse_html` to `False`.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n&gt;&gt;&gt; processor.parse_html = False\n\n&gt;&gt;&gt; nodes = ["hello", "world", "how", "are"]\n&gt;&gt;&gt; xpaths = ["/html/body/div/li[1]/div/span", "/html/body/div/li[1]/div/span", "html/body", "html/body/div"]\n&gt;&gt;&gt; encoding = processor(nodes=nodes, xpaths=xpaths, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n**Use case 3: token classification (training), parse_html=False**', '**Use case 3: token classification (training), parse_html=False**\n\nFor token classification tasks (such as [SWDE](https://paperswithcode.com/dataset/swde)), one can also provide the\ncorresponding node labels in order to train a model. The processor will then convert these into token-level `labels`.\nBy default, it will only label the first wordpiece of a word, and label the remaining wordpieces with -100, which is the\n`ignore_index` of PyTorch\'s CrossEntropyLoss. In case you want all wordpieces of a word to be labeled, you can\ninitialize the tokenizer with `only_label_first_subword` set to `False`.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n&gt;&gt;&gt; processor.parse_html = False\n\n&gt;&gt;&gt; nodes = ["hello", "world", "how", "are"]\n&gt;&gt;&gt; xpaths = ["/html/body/div/li[1]/div/span", "/html/body/div/li[1]/div/span", "html/body", "html/body/div"]\n&gt;&gt;&gt; node_labels = [1, 2, 2, 1]\n&gt;&gt;&gt; encoding = processor(nodes=nodes, xpaths=xpaths, node_labels=node_labels, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\', \'labels\'])\n```\n\n**Use case 4: web page question answering (inference), parse_html=True**\n\nFor question answering tasks on web pages, you can provide a question to the processor. By default, the\nprocessor will use the feature extractor to get all nodes and xpaths, and create [CLS] question tokens [SEP] word tokens [SEP].\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n\n&gt;&gt;&gt; html_string = """\n...  &lt;!DOCTYPE html&gt;\n...  &lt;html&gt;\n...  &lt;head&gt;\n...  &lt;title&gt;Hello world&lt;/title&gt;\n...  &lt;/head&gt;\n...  &lt;body&gt;\n...  &lt;h1&gt;Welcome&lt;/h1&gt;\n...  &lt;p&gt;My name is Niels.&lt;/p&gt;\n...  &lt;/body&gt;\n...  &lt;/html&gt;"""\n\n&gt;&gt;&gt; question = "What\'s his name?"\n&gt;&gt;&gt; encoding = processor(html_string, questions=question, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n**Use case 5: web page question answering (inference), parse_html=False**\n\nFor question answering tasks (such as WebSRC), you can provide a question to the processor. If you have extracted\nall nodes and xpaths yourself, you can provide them directly to the processor. Make sure to set `parse_html` to `False`.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n&gt;&gt;&gt; processor.parse_html = False\n\n&gt;&gt;&gt; nodes = ["hello", "world", "how", "are"]\n&gt;&gt;&gt; xpaths = ["/html/body/div/li[1]/div/span", "/html/body/div/li[1]/div/span", "html/body", "html/body/div"]\n&gt;&gt;&gt; question = "What\'s his name?"\n&gt;&gt;&gt; encoding = processor(nodes=nodes, xpaths=xpaths, questions=question, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n## Resources\n\n- [Demo notebooks](https://github.com/NielsRogge/Transformers-Tutorials/tree/master/MarkupLM)\n- [Text classification task guide](../tasks/sequence_classification)\n- [Token classification task guide](../tasks/token_classification)\n- [Question answering task guide](../tasks/question_answering)\n\n## MarkupLMConfig\n\n[[autodoc]] MarkupLMConfig\n    - all\n\n## MarkupLMFeatureExtractor\n\n[[autodoc]] MarkupLMFeatureExtractor\n    - __call__\n\n## MarkupLMTokenizer\n\n[[autodoc]] MarkupLMTokenizer\n    - build_inputs_with_special_tokens\n    - get_special_tokens_mask\n    - create_token_type_ids_from_sequences\n    - save_vocabulary\n\n## MarkupLMTokenizerFast\n\n[[autodoc]] MarkupLMTokenizerFast\n    - all\n\n## MarkupLMProcessor\n\n[[autodoc]] MarkupLMProcessor\n    - __call__\n\n## MarkupLMModel\n\n[[autodoc]] MarkupLMModel\n    - forward\n\n## MarkupLMForSequenceClassification\n\n[[autodoc]] MarkupLMForSequenceClassification\n    - forward\n\n## MarkupLMForTokenClassification', '!--Copyright 2022 The HuggingFace Team. All rights reserved.\n\nLicensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with\nthe License. You may obtain a copy of the License at\n\nhttp://www.apache.org/licenses/LICENSE-2.0\n\nUnless required by applicable law or agreed to in writing, software distributed under the License is distributed on\nan "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the\nspecific language governing permissions and limitations under the License.\n\n⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n\n--&gt;\n\n# MarkupLM\n\n## Overview\n\nThe MarkupLM model was proposed in [MarkupLM: Pre-training of Text and Markup Language for Visually-rich Document\nUnderstanding](https://arxiv.org/abs/2110.08518) by Junlong Li, Yiheng Xu, Lei Cui, Furu Wei. MarkupLM is BERT, but\napplied to HTML pages instead of raw text documents. The model incorporates additional embedding layers to improve\nperformance, similar to [LayoutLM](layoutlm).\n\nThe model can be used for tasks like question answering on web pages or information extraction from web pages. It obtains\nstate-of-the-art results on 2 important benchmarks:\n- [WebSRC](https://x-lance.github.io/WebSRC/), a dataset for Web-Based Structural Reading Comprehension (a bit like SQuAD but for web pages)\n- [SWDE](https://www.researchgate.net/publication/221299838_From_one_tree_to_a_forest_a_unified_solution_for_structured_web_data_extraction), a dataset\nfor information extraction from web pages (basically named-entity recogntion on web pages)\n\nThe abstract from the paper is the following:\n\n*Multimodal pre-training with text, layout, and image has made significant progress for Visually-rich Document\nUnderstanding (VrDU), especially the fixed-layout documents such as scanned document images. While, there are still a\nlarge number of digital documents where the layout information is not fixed and needs to be interactively and\ndynamically rendered for visualization, making existing layout-based pre-training approaches not easy to apply. In this\npaper, we propose MarkupLM for document understanding tasks with markup languages as the backbone such as\nHTML/XML-based documents, where text and markup information is jointly pre-trained. Experiment results show that the\npre-trained MarkupLM significantly outperforms the existing strong baseline models on several document understanding\ntasks. The pre-trained model and code will be publicly available.*\n\nThis model was contributed by [nielsr](https://huggingface.co/nielsr). The original code can be found [here](https://github.com/microsoft/unilm/tree/master/markuplm).\n\n## Usage tips\n\n- In addition to `input_ids`, [`~MarkupLMModel.forward`] expects 2 additional inputs, namely `xpath_tags_seq` and `xpath_subs_seq`.\nThese are the XPATH tags and subscripts respectively for each token in the input sequence.\n- One can use [`MarkupLMProcessor`] to prepare all data for the model. Refer to the [usage guide](#usage-markuplmprocessor) for more info.\n\n&lt;img src="https://huggingface.co/datasets/huggingface/documentation-images/resolve/main/transformers/model_doc/markuplm_architecture.jpg"\nalt="drawing" width="600"/&gt; \n\n&lt;small&gt; MarkupLM architecture. Taken from the &lt;a href="https://arxiv.org/abs/2110.08518"&gt;original paper.&lt;/a&gt; &lt;/small&gt;\n\n## Usage: MarkupLMProcessor', '## MarkupLMModel\n\n[[autodoc]] MarkupLMModel\n    - forward\n\n## MarkupLMForSequenceClassification\n\n[[autodoc]] MarkupLMForSequenceClassification\n    - forward\n\n## MarkupLMForTokenClassification\n\n[[autodoc]] MarkupLMForTokenClassification\n    - forward\n\n## MarkupLMForQuestionAnswering\n\n[[autodoc]] MarkupLMForQuestionAnswering\n    - forward', '## RagConfig\n\n[[autodoc]] RagConfig\n\n## RagTokenizer\n\n[[autodoc]] RagTokenizer\n\n## Rag specific outputs\n\n[[autodoc]] models.rag.modeling_rag.RetrievAugLMMarginOutput\n\n[[autodoc]] models.rag.modeling_rag.RetrievAugLMOutput\n\n## RagRetriever\n\n[[autodoc]] RagRetriever\n\n&lt;frameworkcontent&gt;\n&lt;pt&gt;\n\n## RagModel\n\n[[autodoc]] RagModel\n    - forward\n\n## RagSequenceForGeneration\n\n[[autodoc]] RagSequenceForGeneration\n    - forward\n    - generate\n\n## RagTokenForGeneration\n\n[[autodoc]] RagTokenForGeneration\n    - forward\n    - generate\n\n&lt;/pt&gt;\n&lt;tf&gt;\n\n## TFRagModel\n\n[[autodoc]] TFRagModel\n    - call\n\n## TFRagSequenceForGeneration\n\n[[autodoc]] TFRagSequenceForGeneration\n    - call\n    - generate\n\n## TFRagTokenForGeneration\n\n[[autodoc]] TFRagTokenForGeneration\n    - call\n    - generate\n\n&lt;/tf&gt;\n&lt;/frameworkcontent&gt;']</t>
+          <t>['&lt;small&gt; MarkupLM architecture. Taken from the &lt;a href="https://arxiv.org/abs/2110.08518"&gt;original paper.&lt;/a&gt; &lt;/small&gt;\n\n## Usage: MarkupLMProcessor\n\nThe easiest way to prepare data for the model is to use [`MarkupLMProcessor`], which internally combines a feature extractor\n([`MarkupLMFeatureExtractor`]) and a tokenizer ([`MarkupLMTokenizer`] or [`MarkupLMTokenizerFast`]). The feature extractor is\nused to extract all nodes and xpaths from the HTML strings, which are then provided to the tokenizer, which turns them into the\ntoken-level inputs of the model (`input_ids` etc.). Note that you can still use the feature extractor and tokenizer separately,\nif you only want to handle one of the two tasks.\n\n```python\nfrom transformers import MarkupLMFeatureExtractor, MarkupLMTokenizerFast, MarkupLMProcessor\n\nfeature_extractor = MarkupLMFeatureExtractor()\ntokenizer = MarkupLMTokenizerFast.from_pretrained("microsoft/markuplm-base")\nprocessor = MarkupLMProcessor(feature_extractor, tokenizer)\n```\n\nIn short, one can provide HTML strings (and possibly additional data) to [`MarkupLMProcessor`],\nand it will create the inputs expected by the model. Internally, the processor first uses\n[`MarkupLMFeatureExtractor`] to get a list of nodes and corresponding xpaths. The nodes and\nxpaths are then provided to [`MarkupLMTokenizer`] or [`MarkupLMTokenizerFast`], which converts them\nto token-level `input_ids`, `attention_mask`, `token_type_ids`, `xpath_subs_seq`, `xpath_tags_seq`.\nOptionally, one can provide node labels to the processor, which are turned into token-level `labels`.\n\n[`MarkupLMFeatureExtractor`] uses [Beautiful Soup](https://www.crummy.com/software/BeautifulSoup/bs4/doc/), a Python library for\npulling data out of HTML and XML files, under the hood. Note that you can still use your own parsing solution of\nchoice, and provide the nodes and xpaths yourself to [`MarkupLMTokenizer`] or [`MarkupLMTokenizerFast`].\n\nIn total, there are 5 use cases that are supported by the processor. Below, we list them all. Note that each of these\nuse cases work for both batched and non-batched inputs (we illustrate them for non-batched inputs).\n\n**Use case 1: web page classification (training, inference) + token classification (inference), parse_html = True**\n\nThis is the simplest case, in which the processor will use the feature extractor to get all nodes and xpaths from the HTML.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n\n&gt;&gt;&gt; html_string = """\n...  &lt;!DOCTYPE html&gt;\n...  &lt;html&gt;\n...  &lt;head&gt;\n...  &lt;title&gt;Hello world&lt;/title&gt;\n...  &lt;/head&gt;\n...  &lt;body&gt;\n...  &lt;h1&gt;Welcome&lt;/h1&gt;\n...  &lt;p&gt;Here is my website.&lt;/p&gt;\n...  &lt;/body&gt;\n...  &lt;/html&gt;"""\n\n&gt;&gt;&gt; # note that you can also add provide all tokenizer parameters here such as padding, truncation\n&gt;&gt;&gt; encoding = processor(html_string, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n**Use case 2: web page classification (training, inference) + token classification (inference), parse_html=False**\n\nIn case one already has obtained all nodes and xpaths, one doesn\'t need the feature extractor. In that case, one should\nprovide the nodes and corresponding xpaths themselves to the processor, and make sure to set `parse_html` to `False`.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n&gt;&gt;&gt; processor.parse_html = False\n\n&gt;&gt;&gt; nodes = ["hello", "world", "how", "are"]\n&gt;&gt;&gt; xpaths = ["/html/body/div/li[1]/div/span", "/html/body/div/li[1]/div/span", "html/body", "html/body/div"]\n&gt;&gt;&gt; encoding = processor(nodes=nodes, xpaths=xpaths, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n**Use case 3: token classification (training), parse_html=False**', '**Use case 3: token classification (training), parse_html=False**\n\nFor token classification tasks (such as [SWDE](https://paperswithcode.com/dataset/swde)), one can also provide the\ncorresponding node labels in order to train a model. The processor will then convert these into token-level `labels`.\nBy default, it will only label the first wordpiece of a word, and label the remaining wordpieces with -100, which is the\n`ignore_index` of PyTorch\'s CrossEntropyLoss. In case you want all wordpieces of a word to be labeled, you can\ninitialize the tokenizer with `only_label_first_subword` set to `False`.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n&gt;&gt;&gt; processor.parse_html = False\n\n&gt;&gt;&gt; nodes = ["hello", "world", "how", "are"]\n&gt;&gt;&gt; xpaths = ["/html/body/div/li[1]/div/span", "/html/body/div/li[1]/div/span", "html/body", "html/body/div"]\n&gt;&gt;&gt; node_labels = [1, 2, 2, 1]\n&gt;&gt;&gt; encoding = processor(nodes=nodes, xpaths=xpaths, node_labels=node_labels, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\', \'labels\'])\n```\n\n**Use case 4: web page question answering (inference), parse_html=True**\n\nFor question answering tasks on web pages, you can provide a question to the processor. By default, the\nprocessor will use the feature extractor to get all nodes and xpaths, and create [CLS] question tokens [SEP] word tokens [SEP].\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n\n&gt;&gt;&gt; html_string = """\n...  &lt;!DOCTYPE html&gt;\n...  &lt;html&gt;\n...  &lt;head&gt;\n...  &lt;title&gt;Hello world&lt;/title&gt;\n...  &lt;/head&gt;\n...  &lt;body&gt;\n...  &lt;h1&gt;Welcome&lt;/h1&gt;\n...  &lt;p&gt;My name is Niels.&lt;/p&gt;\n...  &lt;/body&gt;\n...  &lt;/html&gt;"""\n\n&gt;&gt;&gt; question = "What\'s his name?"\n&gt;&gt;&gt; encoding = processor(html_string, questions=question, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n**Use case 5: web page question answering (inference), parse_html=False**\n\nFor question answering tasks (such as WebSRC), you can provide a question to the processor. If you have extracted\nall nodes and xpaths yourself, you can provide them directly to the processor. Make sure to set `parse_html` to `False`.\n\n```python\n&gt;&gt;&gt; from transformers import MarkupLMProcessor\n\n&gt;&gt;&gt; processor = MarkupLMProcessor.from_pretrained("microsoft/markuplm-base")\n&gt;&gt;&gt; processor.parse_html = False\n\n&gt;&gt;&gt; nodes = ["hello", "world", "how", "are"]\n&gt;&gt;&gt; xpaths = ["/html/body/div/li[1]/div/span", "/html/body/div/li[1]/div/span", "html/body", "html/body/div"]\n&gt;&gt;&gt; question = "What\'s his name?"\n&gt;&gt;&gt; encoding = processor(nodes=nodes, xpaths=xpaths, questions=question, return_tensors="pt")\n&gt;&gt;&gt; print(encoding.keys())\ndict_keys([\'input_ids\', \'token_type_ids\', \'attention_mask\', \'xpath_tags_seq\', \'xpath_subs_seq\'])\n```\n\n## Resources\n\n- [Demo notebooks](https://github.com/NielsRogge/Transformers-Tutorials/tree/master/MarkupLM)\n- [Text classification task guide](../tasks/sequence_classification)\n- [Token classification task guide](../tasks/token_classification)\n- [Question answering task guide](../tasks/question_answering)\n\n## MarkupLMConfig\n\n[[autodoc]] MarkupLMConfig\n    - all\n\n## MarkupLMFeatureExtractor\n\n[[autodoc]] MarkupLMFeatureExtractor\n    - __call__\n\n## MarkupLMTokenizer\n\n[[autodoc]] MarkupLMTokenizer\n    - build_inputs_with_special_tokens\n    - get_special_tokens_mask\n    - create_token_type_ids_from_sequences\n    - save_vocabulary\n\n## MarkupLMTokenizerFast\n\n[[autodoc]] MarkupLMTokenizerFast\n    - all\n\n## MarkupLMProcessor\n\n[[autodoc]] MarkupLMProcessor\n    - __call__\n\n## MarkupLMModel\n\n[[autodoc]] MarkupLMModel\n    - forward\n\n## MarkupLMForSequenceClassification\n\n[[autodoc]] MarkupLMForSequenceClassification\n    - forward\n\n## MarkupLMForTokenClassification', '!--Copyright 2022 The HuggingFace Team. All rights reserved.\n\nLicensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with\nthe License. You may obtain a copy of the License at\n\nhttp://www.apache.org/licenses/LICENSE-2.0\n\nUnless required by applicable law or agreed to in writing, software distributed under the License is distributed on\nan "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the\nspecific language governing permissions and limitations under the License.\n\n⚠️ Note that this file is in Markdown but contain specific syntax for our doc-builder (similar to MDX) that may not be\nrendered properly in your Markdown viewer.\n\n--&gt;\n\n# MarkupLM\n\n## Overview\n\nThe MarkupLM model was proposed in [MarkupLM: Pre-training of Text and Markup Language for Visually-rich Document\nUnderstanding](https://arxiv.org/abs/2110.08518) by Junlong Li, Yiheng Xu, Lei Cui, Furu Wei. MarkupLM is BERT, but\napplied to HTML pages instead of raw text documents. The model incorporates additional embedding layers to improve\nperformance, similar to [LayoutLM](layoutlm).\n\nThe model can be used for tasks like question answering on web pages or information extraction from web pages. It obtains\nstate-of-the-art results on 2 important benchmarks:\n- [WebSRC](https://x-lance.github.io/WebSRC/), a dataset for Web-Based Structural Reading Comprehension (a bit like SQuAD but for web pages)\n- [SWDE](https://www.researchgate.net/publication/221299838_From_one_tree_to_a_forest_a_unified_solution_for_structured_web_data_extraction), a dataset\nfor information extraction from web pages (basically named-entity recogntion on web pages)\n\nThe abstract from the paper is the following:\n\n*Multimodal pre-training with text, layout, and image has made significant progress for Visually-rich Document\nUnderstanding (VrDU), especially the fixed-layout documents such as scanned document images. While, there are still a\nlarge number of digital documents where the layout information is not fixed and needs to be interactively and\ndynamically rendered for visualization, making existing layout-based pre-training approaches not easy to apply. In this\npaper, we propose MarkupLM for document understanding tasks with markup languages as the backbone such as\nHTML/XML-based documents, where text and markup information is jointly pre-trained. Experiment results show that the\npre-trained MarkupLM significantly outperforms the existing strong baseline models on several document understanding\ntasks. The pre-trained model and code will be publicly available.*\n\nThis model was contributed by [nielsr](https://huggingface.co/nielsr). The original code can be found [here](https://github.com/microsoft/unilm/tree/master/markuplm).\n\n## Usage tips\n\n- In addition to `input_ids`, [`~MarkupLMModel.forward`] expects 2 additional inputs, namely `xpath_tags_seq` and `xpath_subs_seq`.\nThese are the XPATH tags and subscripts respectively for each token in the input sequence.\n- One can use [`MarkupLMProcessor`] to prepare all data for the model. Refer to the [usage guide](#usage-markuplmprocessor) for more info.\n\n&lt;img src="https://huggingface.co/datasets/huggingface/documentation-images/resolve/main/transformers/model_doc/markuplm_architecture.jpg"\nalt="drawing" width="600"/&gt; \n\n&lt;small&gt; MarkupLM architecture. Taken from the &lt;a href="https://arxiv.org/abs/2110.08518"&gt;original paper.&lt;/a&gt; &lt;/small&gt;\n\n## Usage: MarkupLMProcessor', '## MarkupLMModel\n\n[[autodoc]] MarkupLMModel\n    - forward\n\n## MarkupLMForSequenceClassification\n\n[[autodoc]] MarkupLMForSequenceClassification\n    - forward\n\n## MarkupLMForTokenClassification\n\n[[autodoc]] MarkupLMForTokenClassification\n    - forward\n\n## MarkupLMForQuestionAnswering\n\n[[autodoc]] MarkupLMForQuestionAnswering\n    - forward', 'q_landmarks = query_layer.reshape(\n    -1,\n    self.num_attention_heads,\n    self.num_landmarks,\n    self.seq_len // self.num_landmarks,\n    self.attention_head_size,\n).mean(dim=-2) # \\tilde{Q}\n\nk_landmarks = key_layer.reshape(\n    -1,\n    self.num_attention_heads,\n    self.num_landmarks,\n    self.seq_len // self.num_landmarks,\n    self.attention_head_size,\n).mean(dim=-2) # \\tilde{K}\n\nkernel_1 = torch.nn.functional.softmax(torch.matmul(query_layer, k_landmarks.transpose(-1, -2)), dim=-1) # \\tilde{F}\nkernel_2 = torch.nn.functional.softmax(torch.matmul(q_landmarks, k_landmarks.transpose(-1, -2)), dim=-1) # \\tilde{A} before pseudo-inverse\n\nattention_scores = torch.matmul(q_landmarks, key_layer.transpose(-1, -2)) # \\tilde{B} before softmax\n\nkernel_3 = nn.functional.softmax(attention_scores, dim=-1) # \\tilde{B}\nattention_probs = torch.matmul(kernel_1, self.iterative_inv(kernel_2)) # \\tilde{F} * \\tilde{A}\nnew_value_layer = torch.matmul(kernel_3, value_layer) # \\tilde{B} * V\ncontext_layer = torch.matmul(attention_probs, new_value_layer) # \\tilde{F} * \\tilde{A} * \\tilde{B} * V\n```\n\n\n## Using Nyströmformer with HuggingFace\n\nNyströmformer for Masked Language Modeling (MLM) is available on HuggingFace. Currently, there are 4 checkpoints, corresponding to various sequence lengths: [`nystromformer-512`](https://huggingface.co/uw-madison/nystromformer-512), [`nystromformer-1024`](https://huggingface.co/uw-madison/nystromformer-1024), [`nystromformer-2048`](https://huggingface.co/uw-madison/nystromformer-2048), and [`nystromformer-4096`](https://huggingface.co/uw-madison/nystromformer-4096). The number of landmarks, \\\\(m\\\\), can be controlled using the `num_landmarks` parameter in the [`NystromformerConfig`](https://huggingface.co/docs/transformers/v4.18.0/en/model_doc/nystromformer#transformers.NystromformerConfig). Let\'s take a look at a minimal example of Nyströmformer for MLM:\n\n```python\nfrom transformers import AutoTokenizer, NystromformerForMaskedLM\nimport torch\n\ntokenizer = AutoTokenizer.from_pretrained("uw-madison/nystromformer-512")\nmodel = NystromformerForMaskedLM.from_pretrained("uw-madison/nystromformer-512")\n\ninputs = tokenizer("Paris is the [MASK] of France.", return_tensors="pt")\n\nwith torch.no_grad():\n    logits = model(**inputs).logits\n\n# retrieve index of [MASK]\nmask_token_index = (inputs.input_ids == tokenizer.mask_token_id)[0].nonzero(as_tuple=True)[0]\n\npredicted_token_id = logits[0, mask_token_index].argmax(axis=-1)\ntokenizer.decode(predicted_token_id)\n```\n\n&lt;div class="output stream stdout"&gt;\n\n    Output:\n    ----------------------------------------------------------------------------------------------------\n    capital\n\n&lt;/div&gt;\n\nAlternatively, we can use the [pipeline API](https://huggingface.co/docs/transformers/main_classes/pipelines) (which handles all the complexity for us):\n```python\nfrom transformers import pipeline\nunmasker = pipeline(\'fill-mask\', model=\'uw-madison/nystromformer-512\')\nunmasker("Paris is the [MASK] of France.")\n```\n\n&lt;div class="output stream stdout"&gt;\n\n    Output:\n    ----------------------------------------------------------------------------------------------------\n    [{\'score\': 0.829957902431488,\n      \'token\': 1030,\n      \'token_str\': \'capital\',\n      \'sequence\': \'paris is the capital of france.\'},\n    {\'score\': 0.022157637402415276,\n      \'token\': 16081,\n      \'token_str\': \'birthplace\',\n      \'sequence\': \'paris is the birthplace of france.\'},\n    {\'score\': 0.01904447190463543,\n      \'token\': 197,\n      \'token_str\': \'name\',\n      \'sequence\': \'paris is the name of france.\'},\n    {\'score\': 0.017583081498742104,\n      \'token\': 1107,\n      \'token_str\': \'kingdom\',\n      \'sequence\': \'paris is the kingdom of france.\'},\n    {\'score\': 0.005948934704065323,\n      \'token\': 148,\n      \'token_str\': \'city\',\n      \'sequence\': \'paris is the city of france.\'}]\n\n&lt;/div&gt;\n\n## Conclusion']</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2527,7 @@
     "runwayml/stable-diffusion-v1-5", torch_dtype=torch.float16, use_safetensors=True
 ).to("cuda")
 ```
-So the `from_pretrained()` method is used to load a checkpoint and automatically retrieve the relevant pipeline for a given task when using AutoPipeline.</t>
+So the `from_pretrained()` method is used to load a checkpoint and automatically retrieve the appropriate pipeline for a given task when using AutoPipeline.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2594,8 +2562,8 @@
         <is>
           <t>Based on the context provided, the parameter used to ensure that elements in a row have the same height in Gradio is `equal_height`.
 Specifically, the context states:
-"To make every element in a row have the same height, use the `equal_height` parameter of the `style` method."
-It gives this example:
+"To make each element in a row have the same height, use the `equal_height` parameter of the `style` method."
+It provides this example:
 ```python
 with gr.Blocks() as demo:
     with gr.Row(equal_height=True):
@@ -2635,9 +2603,9 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>According to the context provided, Hugging Face is replacing the Paid tier of their Inference API service with a new solution called Inference Endpoints. Specifically, the passage states:
+          <t>According to the context, Hugging Face is replacing the Paid tier of their Inference API service with a new solution called Inference Endpoints. Specifically, the blog post states:
 "First of all, we are sunsetting the Paid tier of the Inference API service. The Inference API will still be available for everyone to use for free. But if you're looking for a fast, enterprise-grade inference as a service, we recommend checking out our brand new solution for this: Inference Endpoints."
-So Inference Endpoints is the new service that is replacing the paid Inference API tier at Hugging Face.</t>
+So Inference Endpoints is the new service that is replacing the paid Inference API tier for enterprise-grade inference as a service.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2672,9 +2640,7 @@
         <is>
           <t>According to the context provided, the WordPiece Model uses the special identifier "##" for continuing subwords.
 Specifically, the context states:
-"WordPiece [...] uses the famous `##` prefix to identify tokens that are part of a word (ie not starting a word)."
-And in the Decoders section:
-"WordPiece: Reverts the WordPiece Model. This model uses a special identifier `##` for continuing subwords, and so this Decoder helps with decoding these."
+"WordPiece is a subword tokenization algorithm quite similar to BPE, used mainly by Google in models like BERT. It uses a greedy algorithm, that tries to build long words first, splitting in multiple tokens when entire words don't exist in the vocabulary. This is different from BPE that starts from characters, building bigger tokens as possible. It uses the famous `##` prefix to identify tokens that are part of a word (ie not starting a word)."
 So the special identifier used by WordPiece for continuing subwords is "##".</t>
         </is>
       </c>
@@ -2708,7 +2674,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Based on the context provided, I don't have specific information about the `roberta-large-mnli` checkpoint or what task it performs. The context discusses various NLP tasks and models like BERT, but does not mention this particular RoBERTa checkpoint. Without more context about RoBERTa or this specific model, I cannot confidently state what task it is designed for. If you have additional information about this checkpoint, I'd be happy to try to answer based on that.</t>
+          <t>Based on the context provided, I don't have specific information about the `roberta-large-mnli` checkpoint or what task it performs. The context discusses BERT and text classification in general, but does not mention this particular RoBERTa checkpoint. Without more details about this specific model, I can't make any definitive claims about what task it is designed for.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2741,12 +2707,9 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>According to the context, the FNet model replaces the self-attention layer in a BERT model with a Fourier transform. Specifically, it uses a Fourier transform that returns only the real parts of the transform.
-The key details are:
-- FNet replaces the self-attention sublayer in a Transformer encoder with a Fourier Transform
-- It uses a "standard, unparameterized Fourier Transform" 
-- Only the real parts of the Fourier transform are returned
-This Fourier transform-based mixing of input tokens allows FNet to achieve 92-97% of BERT's accuracy on the GLUE benchmark while training significantly faster.</t>
+          <t>According to the context, the FNet model replaces the self-attention layer in a BERT model with a Fourier transform. Specifically:
+The context states that "The model replaces the self-attention layer in a BERT model with a fourier transform which returns only the real parts of the transform."
+This Fourier transform replacement allows FNet to be significantly faster than BERT while still achieving 92-97% of BERT's accuracy on the GLUE benchmark.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2779,9 +2742,9 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Based on the context provided, the HuggingFace Team's software is distributed under the Apache License, Version 2.0. This is evident from the copyright notice at the beginning of the context, which states:
+          <t>Based on the context provided, the HuggingFace Team's software is distributed under the Apache License, Version 2.0. This is evident from the copyright notices at the beginning of the context, which state:
 "Licensed under the Apache License, Version 2.0 (the "License");"
-The Apache License 2.0 is an open source software license that allows users to use, modify, and distribute the software, subject to certain conditions specified in the license.</t>
+The Apache License 2.0 is an open source license that allows users to use, modify, and distribute the software, subject to certain conditions outlined in the license.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2814,9 +2777,9 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Based on the context provided, Hugging Face has SOC2 Type 2 certification. Specifically, the passage states:
+          <t>According to the context provided, Hugging Face is SOC2 Type 2 certified. Specifically, the passage states:
 "Hugging Face is also SOC2 Type 2 certified, meaning we provide security certification to our customers and actively monitor and patch any security weaknesses."
-SOC2 (Service Organization Control 2) is a security certification that demonstrates a company has established processes and practices to ensure the security, availability, processing integrity, confidentiality, and privacy of customer data. The Type 2 designation indicates that the certification covers the operational effectiveness of those controls over a period of time, rather than just at a single point in time.</t>
+SOC2 (Service Organization Control 2) is a widely recognized auditing standard developed by the American Institute of CPAs (AICPA) that assesses an organization's information systems and controls. Type 2 certification means Hugging Face has undergone a more rigorous audit that evaluates the effectiveness of their controls over a period of time, rather than just at a single point in time.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2849,10 +2812,10 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Based on the test strategy document, the typical type of test that should accompany a bug fix in Gradio is a dynamic code test. Specifically, the document states:
+          <t>According to the test strategy document, the typical type of test that should accompany a bug fix in Gradio is a dynamic code test. Specifically, the document states:
 "Every bug fix should be accompanied by a test that failed before the fix and passes afterwards. This test should _typically_ be a dynamic code test but it could be a linting rule or new type if that is appropriate."
-The document describes dynamic code tests as usually being unit or integration tests that test isolated pieces of code or relationships between parts of the codebase. It notes these tests are generally quick to write and run while offering moderate confidence, aligning closely with the objectives of identifying defect sources and preventing regressions.
-So while there may be exceptions, the standard practice outlined is to add a dynamic code test (typically a unit or integration test) when fixing a bug in Gradio.</t>
+The document notes that dynamic code tests are usually unit or integration tests. It says these types of tests align closely with the objectives of enabling quick identification of defects and preventing regressions.
+So while there may be exceptions, the general guideline is that bug fixes should typically be accompanied by a dynamic code test (like a unit or integration test) that demonstrates the bug is fixed.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2925,7 +2888,7 @@
 1. You can access the build logs of your Image artifacts.
 2. You can access the Container Logs during inference.
 The Container Logs are only available when your Endpoint is in the "Running" state. 
-Additionally, if your Endpoint creation is in the "Failed" state, you can check the Build Logs to see what the reason was, such as wrong version of a dependency.</t>
+The context also notes that if your Endpoint creation is in the "Failed" state, you can check the Build Logs to see what the reason was, such as wrong version of a dependency.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
